--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29322"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95681165-E298-4DBA-9D4D-F9503FE3D4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C289E034-1E21-40B5-AB97-37FAB2344597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,18 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Bono 1</t>
   </si>
   <si>
     <t>Bono 2</t>
   </si>
+  <si>
+    <t>Bono PAE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -72,9 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,14 +428,16 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45672</v>
       </c>
@@ -438,8 +448,9 @@
         <f>+B2+C2</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>45853</v>
       </c>
@@ -450,8 +461,9 @@
         <f t="shared" ref="D3:D12" si="0">+B3+C3</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>46037</v>
       </c>
@@ -462,8 +474,10 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="H4" s="1"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46218</v>
       </c>
@@ -474,8 +488,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>46402</v>
       </c>
@@ -486,8 +501,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>46583</v>
       </c>
@@ -498,8 +514,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>46767</v>
       </c>
@@ -510,8 +527,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>46949</v>
       </c>
@@ -522,8 +540,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>47133</v>
       </c>
@@ -534,8 +553,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>47314</v>
       </c>
@@ -546,8 +566,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>47498</v>
       </c>
@@ -561,13 +582,14 @@
         <f t="shared" si="0"/>
         <v>102.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>43816</v>
       </c>
@@ -579,7 +601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>43907</v>
       </c>
@@ -587,11 +609,12 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D52" si="1">+B15+C15</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <f t="shared" ref="D15:D66" si="1">+B15+C15</f>
+        <v>2</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>43999</v>
       </c>
@@ -603,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>44091</v>
       </c>
@@ -614,8 +637,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>44182</v>
       </c>
@@ -626,8 +650,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>44272</v>
       </c>
@@ -638,8 +663,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>44364</v>
       </c>
@@ -650,8 +676,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>44456</v>
       </c>
@@ -662,8 +689,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>44547</v>
       </c>
@@ -674,8 +702,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>44637</v>
       </c>
@@ -686,8 +715,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>44729</v>
       </c>
@@ -698,8 +728,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>44821</v>
       </c>
@@ -710,8 +741,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>44912</v>
       </c>
@@ -722,8 +754,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>45002</v>
       </c>
@@ -734,8 +767,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>45094</v>
       </c>
@@ -746,8 +780,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>45186</v>
       </c>
@@ -758,8 +793,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>45277</v>
       </c>
@@ -770,8 +806,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>45368</v>
       </c>
@@ -782,8 +819,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>45460</v>
       </c>
@@ -794,8 +832,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>45552</v>
       </c>
@@ -806,8 +845,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>45643</v>
       </c>
@@ -818,8 +858,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>45733</v>
       </c>
@@ -830,8 +871,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>45825</v>
       </c>
@@ -842,8 +884,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>45917</v>
       </c>
@@ -854,8 +897,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>46008</v>
       </c>
@@ -866,8 +910,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>46098</v>
       </c>
@@ -878,8 +923,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>46190</v>
       </c>
@@ -890,8 +936,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>46282</v>
       </c>
@@ -902,8 +949,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>46373</v>
       </c>
@@ -914,8 +962,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>46463</v>
       </c>
@@ -929,8 +978,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>46555</v>
       </c>
@@ -944,8 +994,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>46647</v>
       </c>
@@ -959,8 +1010,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>46738</v>
       </c>
@@ -974,8 +1026,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>46829</v>
       </c>
@@ -989,8 +1042,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46921</v>
       </c>
@@ -1004,8 +1058,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>47013</v>
       </c>
@@ -1019,8 +1074,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>47104</v>
       </c>
@@ -1034,8 +1090,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>47194</v>
       </c>
@@ -1049,8 +1106,9 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>47286</v>
       </c>
@@ -1063,6 +1121,175 @@
       <c r="D52">
         <f t="shared" si="1"/>
         <v>12</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>46159</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1">
+        <v>46343</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1">
+        <v>46524</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1">
+        <v>46708</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1">
+        <v>46890</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1">
+        <v>47074</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1">
+        <v>47255</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1">
+        <v>47439</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1">
+        <v>47620</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>47804</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>47985</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>100</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C289E034-1E21-40B5-AB97-37FAB2344597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEEF827F-D83E-409D-9368-3B6CBAAAC236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Bono 1</t>
+    <t>Bono YPF</t>
   </si>
   <si>
-    <t>Bono 2</t>
+    <t>Bono Arcor</t>
   </si>
   <si>
     <t>Bono PAE</t>
@@ -420,7 +420,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEEF827F-D83E-409D-9368-3B6CBAAAC236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA6435D-26D8-440D-96E6-F35D0E66A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Bono YPF</t>
+  </si>
+  <si>
+    <t>30/360</t>
+  </si>
+  <si>
+    <t>ACT/365</t>
+  </si>
+  <si>
+    <t>ACT/360</t>
+  </si>
+  <si>
+    <t>ACT/ACT</t>
   </si>
   <si>
     <t>Bono Arcor</t>
@@ -78,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,882 +430,1097 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>45672</v>
       </c>
-      <c r="B2">
-        <v>2.5</v>
-      </c>
-      <c r="D2">
-        <f>+B2+C2</f>
-        <v>2.5</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <f>+C2+D2</f>
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>45853</v>
       </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D12" si="0">+B3+C3</f>
-        <v>2.5</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">+C3+D3</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>46037</v>
       </c>
-      <c r="B4">
-        <v>2.5</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>46218</v>
       </c>
-      <c r="B5">
-        <v>2.5</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>46402</v>
       </c>
-      <c r="B6">
-        <v>2.5</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>46583</v>
       </c>
-      <c r="B7">
-        <v>2.5</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>46767</v>
       </c>
-      <c r="B8">
-        <v>2.5</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>46949</v>
       </c>
-      <c r="B9">
-        <v>2.5</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C9">
+        <v>2.5</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>47133</v>
       </c>
-      <c r="B10">
-        <v>2.5</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>47314</v>
       </c>
-      <c r="B11">
-        <v>2.5</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="C11">
+        <v>2.5</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>47498</v>
       </c>
-      <c r="B12">
-        <v>2.5</v>
+      <c r="B12" s="4">
+        <v>0.05</v>
       </c>
       <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12">
         <v>100</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="0"/>
         <v>102.5</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>43816</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <f>+B14+C14</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>+C14+D14</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>43907</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:D66" si="1">+B15+C15</f>
-        <v>2</v>
-      </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E66" si="1">+C15+D15</f>
+        <v>2</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>43999</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="B16" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>44091</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="B17" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>44182</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="B18" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>44272</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="B19" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>44364</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="B20" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>44456</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="B21" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>44547</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="B22" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>44637</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="B23" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>44729</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="B24" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>44821</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="B25" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>44912</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="B26" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>45002</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="B27" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>45094</v>
       </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="B28" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>45186</v>
       </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="B29" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>45277</v>
       </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="B30" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>45368</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="B31" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>45460</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="B32" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>45552</v>
       </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="B33" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>45643</v>
       </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="B34" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>45733</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="B35" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>45825</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="B36" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>45917</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="B37" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>46008</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="B38" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>46098</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="B39" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>46190</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="B40" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>46282</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="B41" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>46373</v>
       </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="B42" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>46463</v>
       </c>
-      <c r="B43">
-        <v>2</v>
+      <c r="B43" s="4">
+        <v>0.04</v>
       </c>
       <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
         <v>10</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>46555</v>
       </c>
-      <c r="B44">
-        <v>2</v>
+      <c r="B44" s="4">
+        <v>0.04</v>
       </c>
       <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
         <v>10</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>46647</v>
       </c>
-      <c r="B45">
-        <v>2</v>
+      <c r="B45" s="4">
+        <v>0.04</v>
       </c>
       <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
         <v>10</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>46738</v>
       </c>
-      <c r="B46">
-        <v>2</v>
+      <c r="B46" s="4">
+        <v>0.04</v>
       </c>
       <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>10</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>46829</v>
       </c>
-      <c r="B47">
-        <v>2</v>
+      <c r="B47" s="4">
+        <v>0.04</v>
       </c>
       <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
         <v>10</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46921</v>
       </c>
-      <c r="B48">
-        <v>2</v>
+      <c r="B48" s="4">
+        <v>0.04</v>
       </c>
       <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
         <v>10</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47013</v>
       </c>
-      <c r="B49">
-        <v>2</v>
+      <c r="B49" s="4">
+        <v>0.04</v>
       </c>
       <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
         <v>10</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>47104</v>
       </c>
-      <c r="B50">
-        <v>2</v>
+      <c r="B50" s="4">
+        <v>0.04</v>
       </c>
       <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
         <v>10</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>47194</v>
       </c>
-      <c r="B51">
-        <v>2</v>
+      <c r="B51" s="4">
+        <v>0.04</v>
       </c>
       <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
         <v>10</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>47286</v>
       </c>
-      <c r="B52">
-        <v>2</v>
+      <c r="B52" s="4">
+        <v>0.04</v>
       </c>
       <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
         <v>10</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>45794</v>
       </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="B54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>45978</v>
       </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="B55" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>46159</v>
       </c>
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="B56" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>46343</v>
       </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="B57" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>46524</v>
       </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="B58" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>46708</v>
       </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="B59" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>46890</v>
       </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="B60" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>47074</v>
       </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="B61" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>47255</v>
       </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="B62" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>47439</v>
       </c>
-      <c r="B63">
-        <v>5</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="B63" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>47620</v>
       </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="B64" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>47804</v>
       </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="B65" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>47985</v>
       </c>
-      <c r="B66">
-        <v>5</v>
+      <c r="B66" s="4">
+        <v>0.1</v>
       </c>
       <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
         <v>100</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B53 B13" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
+      <formula1>$J$1:$J$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA6435D-26D8-440D-96E6-F35D0E66A9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383575C0-BFB7-4CF3-8C7C-0E0AE7DBD968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Bono YPF</t>
   </si>
   <si>
-    <t>30/360</t>
-  </si>
-  <si>
     <t>ACT/365</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>ACT/ACT</t>
+  </si>
+  <si>
+    <t>30/360</t>
   </si>
   <si>
     <t>Bono Arcor</t>
@@ -70,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,12 +96,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -446,14 +453,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -472,7 +484,7 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -491,7 +503,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -510,7 +522,7 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -650,7 +662,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1310,7 +1325,10 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
       </c>
       <c r="I53" s="1"/>
     </row>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383575C0-BFB7-4CF3-8C7C-0E0AE7DBD968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB8CCA5-86FB-4DD0-A9D0-BD7F036F02B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -448,6 +448,7 @@
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -501,6 +502,9 @@
         <f t="shared" ref="E3:E12" si="0">+C3+D3</f>
         <v>2.5</v>
       </c>
+      <c r="G3" s="1">
+        <v>45916</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
         <v>3</v>
@@ -520,6 +524,10 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="G4">
+        <f>+G3-A3</f>
+        <v>63</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
         <v>4</v>
@@ -556,6 +564,10 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="G6">
+        <f>100*B3</f>
+        <v>5</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:14">
@@ -572,6 +584,10 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="G7">
+        <f>+G6/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:14">
@@ -588,6 +604,10 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="G8">
+        <f>+G7*G4</f>
+        <v>0.86301369863013688</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:14">
@@ -852,9 +872,12 @@
       <c r="C25">
         <v>2</v>
       </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -900,9 +923,12 @@
       <c r="C28">
         <v>2</v>
       </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -948,9 +974,12 @@
       <c r="C31">
         <v>2</v>
       </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I31" s="1"/>
     </row>
@@ -996,9 +1025,12 @@
       <c r="C34">
         <v>2</v>
       </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I34" s="1"/>
     </row>
@@ -1044,9 +1076,12 @@
       <c r="C37">
         <v>2</v>
       </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
       <c r="E37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I37" s="1"/>
     </row>
@@ -1092,9 +1127,12 @@
       <c r="C40">
         <v>2</v>
       </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
       <c r="E40">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I40" s="1"/>
     </row>
@@ -1159,12 +1197,9 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>10</v>
-      </c>
       <c r="E44">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I44" s="1"/>
     </row>
@@ -1178,12 +1213,9 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>10</v>
-      </c>
       <c r="E45">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I45" s="1"/>
     </row>
@@ -1216,12 +1248,9 @@
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47">
-        <v>10</v>
-      </c>
       <c r="E47">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1"/>
     </row>
@@ -1235,12 +1264,9 @@
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>10</v>
-      </c>
       <c r="E48">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I48" s="1"/>
     </row>
@@ -1273,12 +1299,9 @@
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
       <c r="E50">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1"/>
     </row>
@@ -1292,12 +1315,9 @@
       <c r="C51">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>10</v>
-      </c>
       <c r="E51">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I51" s="1"/>
     </row>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CB8CCA5-86FB-4DD0-A9D0-BD7F036F02B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{530FE1C7-323D-46BF-AAC2-1FC0867BA4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Bono YPF</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Bono PAE</t>
+  </si>
+  <si>
+    <t>PAE 2029 7,00%</t>
   </si>
 </sst>
 </file>
@@ -96,13 +99,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E66" si="1">+C15+D15</f>
+        <f t="shared" ref="E15:E77" si="1">+C15+D15</f>
         <v>2</v>
       </c>
       <c r="L15" s="2"/>
@@ -1553,9 +1557,221 @@
         <v>105</v>
       </c>
     </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B68" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C68">
+        <v>3.47</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B69" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C69">
+        <v>3.53</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>46108</v>
+      </c>
+      <c r="B70" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C70">
+        <v>3.47</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>46292</v>
+      </c>
+      <c r="B71" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C71">
+        <v>3.53</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>46473</v>
+      </c>
+      <c r="B72" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C72">
+        <v>3.47</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>46657</v>
+      </c>
+      <c r="B73" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C73">
+        <v>3.53</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>46839</v>
+      </c>
+      <c r="B74" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C74">
+        <v>3.47</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>47023</v>
+      </c>
+      <c r="B75" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C75">
+        <v>3.53</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>47204</v>
+      </c>
+      <c r="B76" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C76">
+        <v>3.47</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>47388</v>
+      </c>
+      <c r="B77" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C77">
+        <v>3.53</v>
+      </c>
+      <c r="D77">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>103.53</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B53 B13" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B53 B13 B67" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
       <formula1>$J$1:$J$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{530FE1C7-323D-46BF-AAC2-1FC0867BA4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B923F3E4-0861-412A-9C30-7528C108F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
-    <t>Bono YPF</t>
+    <t>PAE 2029 7,00%</t>
   </si>
   <si>
     <t>ACT/365</t>
+  </si>
+  <si>
+    <t>Corporativo Ley ARG</t>
   </si>
   <si>
     <t>ACT/360</t>
@@ -48,13 +51,19 @@
     <t>30/360</t>
   </si>
   <si>
-    <t>Bono Arcor</t>
+    <t>Soberano USD</t>
   </si>
   <si>
-    <t>Bono PAE</t>
+    <t>Corporativo Ley NY</t>
   </si>
   <si>
-    <t>PAE 2029 7,00%</t>
+    <t>VISTA 2027 6,5%</t>
+  </si>
+  <si>
+    <t>YPF 2028 6,5%</t>
+  </si>
+  <si>
+    <t>GD30</t>
   </si>
 </sst>
 </file>
@@ -73,18 +82,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +108,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,1338 +446,1084 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" ht="29.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="J1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>45672</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
-        <v>2.5</v>
-      </c>
-      <c r="E2">
-        <f>+C2+D2</f>
-        <v>2.5</v>
-      </c>
+        <v>45562</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>45853</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.05</v>
+        <v>45743</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.47</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">+C3+D3</f>
-        <v>2.5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>45916</v>
-      </c>
+        <f>+C3+D3</f>
+        <v>3.47</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>46037</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.05</v>
+        <v>45927</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>3.53</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G4">
-        <f>+G3-A3</f>
-        <v>63</v>
+        <f>+C4+D4</f>
+        <v>3.53</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>46218</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.05</v>
+        <v>46108</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3.47</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>+C5+D5</f>
+        <v>3.47</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>46402</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.05</v>
+        <v>46292</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.53</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G6">
-        <f>100*B3</f>
-        <v>5</v>
+        <f>+C6+D6</f>
+        <v>3.53</v>
       </c>
       <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>46583</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.05</v>
+        <v>46473</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>3.47</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G7">
-        <f>+G6/365</f>
-        <v>1.3698630136986301E-2</v>
+        <f>+C7+D7</f>
+        <v>3.47</v>
       </c>
       <c r="I7" s="1"/>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>46767</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0.05</v>
+        <v>46657</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>3.53</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="G8">
-        <f>+G7*G4</f>
-        <v>0.86301369863013688</v>
+        <f>+C8+D8</f>
+        <v>3.53</v>
       </c>
       <c r="I8" s="1"/>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>46949</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0.05</v>
+        <v>46839</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3.47</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>+C9+D9</f>
+        <v>3.47</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>47133</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0.05</v>
+        <v>47023</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>3.53</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>+C10+D10</f>
+        <v>3.53</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>47314</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0.05</v>
+        <v>47204</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>3.47</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
+        <f>+C11+D11</f>
+        <v>3.47</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>47498</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0.05</v>
+        <v>47388</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C12">
-        <v>2.5</v>
+        <v>3.53</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>102.5</v>
+        <f>+C12+D12</f>
+        <v>103.53</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>43816</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <f>+C14+D14</f>
-        <v>2</v>
+        <v>45357</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B15" s="4">
-        <v>0.04</v>
+        <v>45541</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3.28</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E77" si="1">+C15+D15</f>
-        <v>2</v>
+        <f t="shared" ref="E15:E20" si="0">+C15+D15</f>
+        <v>3.28</v>
       </c>
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>43999</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0.04</v>
+        <v>45722</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3.22</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.22</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>44091</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0.04</v>
+        <v>45906</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3.28</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.28</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1">
-        <v>44182</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0.04</v>
+        <v>46087</v>
+      </c>
+      <c r="B18" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3.22</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.22</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1">
-        <v>44272</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0.04</v>
+        <v>46271</v>
+      </c>
+      <c r="B19" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3.28</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3.28</v>
       </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>44364</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0.04</v>
+        <v>46452</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3.22</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>103.22</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>44456</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0.04</v>
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>2</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>44547</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45575</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>44637</v>
-      </c>
-      <c r="B23" s="4">
-        <v>0.04</v>
+        <v>45848</v>
+      </c>
+      <c r="B23" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="E23:E36" si="1">+C23+D23</f>
+        <v>4.8600000000000003</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>44729</v>
-      </c>
-      <c r="B24" s="4">
-        <v>0.04</v>
+        <v>45940</v>
+      </c>
+      <c r="B24" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>44821</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0.04</v>
+        <v>46032</v>
+      </c>
+      <c r="B25" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
+        <v>1.64</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1.64</v>
       </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>44912</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0.04</v>
+        <v>46122</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>45002</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0.04</v>
+        <v>46213</v>
+      </c>
+      <c r="B27" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>45094</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.04</v>
+        <v>46305</v>
+      </c>
+      <c r="B28" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
+        <v>1.64</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1.64</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>45186</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.04</v>
+        <v>46397</v>
+      </c>
+      <c r="B29" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>45277</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0.04</v>
+        <v>46487</v>
+      </c>
+      <c r="B30" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>45368</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0.04</v>
+        <v>46578</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>10</v>
+        <v>1.62</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1.62</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>45460</v>
-      </c>
-      <c r="B32" s="4">
-        <v>0.04</v>
+        <v>46670</v>
+      </c>
+      <c r="B32" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0.04</v>
+        <v>46762</v>
+      </c>
+      <c r="B33" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>45643</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0.04</v>
+        <v>46853</v>
+      </c>
+      <c r="B34" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
+        <v>1.62</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>1.62</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>45733</v>
-      </c>
-      <c r="B35" s="4">
-        <v>0.04</v>
+        <v>46944</v>
+      </c>
+      <c r="B35" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>45825</v>
-      </c>
-      <c r="B36" s="4">
-        <v>0.04</v>
+        <v>47036</v>
+      </c>
+      <c r="B36" s="5">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1.64</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>101.64</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.04</v>
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37">
-        <v>10</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="D37" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>46008</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <v>43930</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>46098</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0.04</v>
+        <v>44386</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.25E-3</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>0.16</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" ref="E39:E57" si="2">+C39+D39</f>
+        <v>0.16</v>
       </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>46190</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0.04</v>
+        <v>44570</v>
+      </c>
+      <c r="B40" s="5">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>46282</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0.04</v>
+        <v>44751</v>
+      </c>
+      <c r="B41" s="5">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>46373</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.04</v>
+        <v>44935</v>
+      </c>
+      <c r="B42" s="5">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>46463</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.04</v>
+        <v>45116</v>
+      </c>
+      <c r="B43" s="5">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>0.25</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>46555</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.04</v>
+        <v>45300</v>
+      </c>
+      <c r="B44" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>0.38</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>0.38</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>46647</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.04</v>
+        <v>45482</v>
+      </c>
+      <c r="B45" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0.38</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>4.38</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>46738</v>
-      </c>
-      <c r="B46" s="4">
-        <v>0.04</v>
+        <v>45666</v>
+      </c>
+      <c r="B46" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>0.36</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>8.36</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>46829</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.04</v>
+        <v>45847</v>
+      </c>
+      <c r="B47" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>0.33</v>
+      </c>
+      <c r="D47">
+        <v>8</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8.33</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>46921</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.04</v>
+        <v>46031</v>
+      </c>
+      <c r="B48" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>0.3</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>47013</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.04</v>
+        <v>46212</v>
+      </c>
+      <c r="B49" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>0.27</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>8.27</v>
       </c>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>47104</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.04</v>
+        <v>46396</v>
+      </c>
+      <c r="B50" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>0.24</v>
+      </c>
+      <c r="D50">
+        <v>8</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8.24</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>47194</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.04</v>
+        <v>46577</v>
+      </c>
+      <c r="B51" s="5">
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>0.21</v>
+      </c>
+      <c r="D51">
+        <v>8</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>8.2100000000000009</v>
       </c>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>47286</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.04</v>
+        <v>46761</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>0.42</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>8.42</v>
       </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
+      <c r="A53" s="1">
+        <v>46943</v>
+      </c>
+      <c r="B53" s="5">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>0.35</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>8.35</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>45794</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0.1</v>
+        <v>47127</v>
+      </c>
+      <c r="B54" s="5">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8.2799999999999994</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>45978</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0.1</v>
+        <v>47308</v>
+      </c>
+      <c r="B55" s="5">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>0.21</v>
+      </c>
+      <c r="D55">
+        <v>8</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8.2100000000000009</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>46159</v>
-      </c>
-      <c r="B56" s="4">
-        <v>0.1</v>
+        <v>47492</v>
+      </c>
+      <c r="B56" s="5">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8.14</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>46343</v>
-      </c>
-      <c r="B57" s="4">
-        <v>0.1</v>
+        <v>47673</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8.07</v>
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="1">
-        <v>46524</v>
-      </c>
-      <c r="B58" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="1">
-        <v>46708</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C59">
-        <v>5</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="4"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="1">
-        <v>46890</v>
-      </c>
-      <c r="B60" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C60">
-        <v>5</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="4"/>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="1">
-        <v>47074</v>
-      </c>
-      <c r="B61" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C61">
-        <v>5</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="1">
-        <v>47255</v>
-      </c>
-      <c r="B62" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C62">
-        <v>5</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="1">
-        <v>47439</v>
-      </c>
-      <c r="B63" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C63">
-        <v>5</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="1">
-        <v>47620</v>
-      </c>
-      <c r="B64" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C64">
-        <v>5</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="1">
-        <v>47804</v>
-      </c>
-      <c r="B65" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C65">
-        <v>5</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="1">
-        <v>47985</v>
-      </c>
-      <c r="B66" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1">
-        <v>45562</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="1">
-        <v>45743</v>
-      </c>
-      <c r="B68" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C68">
-        <v>3.47</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="1"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="1">
-        <v>45927</v>
-      </c>
-      <c r="B69" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C69">
-        <v>3.53</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="1"/>
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="1">
-        <v>46108</v>
-      </c>
-      <c r="B70" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C70">
-        <v>3.47</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="1">
-        <v>46292</v>
-      </c>
-      <c r="B71" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C71">
-        <v>3.53</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="1"/>
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="1">
-        <v>46473</v>
-      </c>
-      <c r="B72" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C72">
-        <v>3.47</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="1"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="1">
-        <v>46657</v>
-      </c>
-      <c r="B73" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C73">
-        <v>3.53</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="1"/>
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="1">
-        <v>46839</v>
-      </c>
-      <c r="B74" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C74">
-        <v>3.47</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="1"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="1">
-        <v>47023</v>
-      </c>
-      <c r="B75" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C75">
-        <v>3.53</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="1"/>
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="1">
-        <v>47204</v>
-      </c>
-      <c r="B76" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C76">
-        <v>3.47</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="1"/>
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="1">
-        <v>47388</v>
-      </c>
-      <c r="B77" s="6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C77">
-        <v>3.53</v>
-      </c>
-      <c r="D77">
-        <v>100</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="1"/>
-        <v>103.53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B53 B13 B67" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B13 B21 B37" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
       <formula1>$J$1:$J$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D13 D21 D37" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
+      <formula1>$J$6:$J$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B923F3E4-0861-412A-9C30-7528C108F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0392D7D6-0764-4CE5-8D4C-8B0B817C1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>PAE 2029 7,00%</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>GD30</t>
+  </si>
+  <si>
+    <t>ARCOR 2028 6,5%</t>
   </si>
 </sst>
 </file>
@@ -102,12 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -448,13 +450,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -463,7 +466,7 @@
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.25">
+    <row r="1" spans="1:14" ht="20.25" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +476,7 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
@@ -484,7 +487,7 @@
       <c r="A2" s="1">
         <v>45562</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D2" s="1"/>
@@ -497,7 +500,7 @@
       <c r="A3" s="1">
         <v>45743</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C3">
@@ -517,7 +520,7 @@
       <c r="A4" s="1">
         <v>45927</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4">
@@ -537,7 +540,7 @@
       <c r="A5" s="1">
         <v>46108</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C5">
@@ -553,7 +556,7 @@
       <c r="A6" s="1">
         <v>46292</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6">
@@ -572,7 +575,7 @@
       <c r="A7" s="1">
         <v>46473</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7">
@@ -591,7 +594,7 @@
       <c r="A8" s="1">
         <v>46657</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8">
@@ -610,7 +613,7 @@
       <c r="A9" s="1">
         <v>46839</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9">
@@ -626,7 +629,7 @@
       <c r="A10" s="1">
         <v>47023</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10">
@@ -642,7 +645,7 @@
       <c r="A11" s="1">
         <v>47204</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11">
@@ -658,7 +661,7 @@
       <c r="A12" s="1">
         <v>47388</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C12">
@@ -683,7 +686,7 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -691,7 +694,7 @@
       <c r="A14" s="1">
         <v>45357</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -699,7 +702,7 @@
       <c r="A15" s="1">
         <v>45541</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C15">
@@ -715,7 +718,7 @@
       <c r="A16" s="1">
         <v>45722</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C16">
@@ -730,7 +733,7 @@
       <c r="A17" s="1">
         <v>45906</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C17">
@@ -746,7 +749,7 @@
       <c r="A18" s="1">
         <v>46087</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C18">
@@ -762,7 +765,7 @@
       <c r="A19" s="1">
         <v>46271</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19">
@@ -778,7 +781,7 @@
       <c r="A20" s="1">
         <v>46452</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C20">
@@ -803,7 +806,7 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I21" s="1"/>
@@ -812,7 +815,7 @@
       <c r="A22" s="1">
         <v>45575</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="I22" s="1"/>
@@ -821,7 +824,7 @@
       <c r="A23" s="1">
         <v>45848</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C23">
@@ -837,7 +840,7 @@
       <c r="A24" s="1">
         <v>45940</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C24">
@@ -853,7 +856,7 @@
       <c r="A25" s="1">
         <v>46032</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C25">
@@ -869,7 +872,7 @@
       <c r="A26" s="1">
         <v>46122</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C26">
@@ -885,7 +888,7 @@
       <c r="A27" s="1">
         <v>46213</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C27">
@@ -901,7 +904,7 @@
       <c r="A28" s="1">
         <v>46305</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C28">
@@ -917,7 +920,7 @@
       <c r="A29" s="1">
         <v>46397</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C29">
@@ -933,7 +936,7 @@
       <c r="A30" s="1">
         <v>46487</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C30">
@@ -949,7 +952,7 @@
       <c r="A31" s="1">
         <v>46578</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C31">
@@ -965,7 +968,7 @@
       <c r="A32" s="1">
         <v>46670</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C32">
@@ -981,7 +984,7 @@
       <c r="A33" s="1">
         <v>46762</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C33">
@@ -997,7 +1000,7 @@
       <c r="A34" s="1">
         <v>46853</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C34">
@@ -1013,7 +1016,7 @@
       <c r="A35" s="1">
         <v>46944</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C35">
@@ -1029,7 +1032,7 @@
       <c r="A36" s="1">
         <v>47036</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C36">
@@ -1054,7 +1057,7 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I37" s="1"/>
@@ -1085,7 +1088,7 @@
       <c r="A40" s="1">
         <v>44570</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C40">
@@ -1101,7 +1104,7 @@
       <c r="A41" s="1">
         <v>44751</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C41">
@@ -1117,7 +1120,7 @@
       <c r="A42" s="1">
         <v>44935</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C42">
@@ -1133,7 +1136,7 @@
       <c r="A43" s="1">
         <v>45116</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C43">
@@ -1149,7 +1152,7 @@
       <c r="A44" s="1">
         <v>45300</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C44">
@@ -1165,7 +1168,7 @@
       <c r="A45" s="1">
         <v>45482</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C45">
@@ -1184,7 +1187,7 @@
       <c r="A46" s="1">
         <v>45666</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C46">
@@ -1203,7 +1206,7 @@
       <c r="A47" s="1">
         <v>45847</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C47">
@@ -1222,7 +1225,7 @@
       <c r="A48" s="1">
         <v>46031</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C48">
@@ -1241,7 +1244,7 @@
       <c r="A49" s="1">
         <v>46212</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C49">
@@ -1260,7 +1263,7 @@
       <c r="A50" s="1">
         <v>46396</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C50">
@@ -1279,7 +1282,7 @@
       <c r="A51" s="1">
         <v>46577</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C51">
@@ -1298,7 +1301,7 @@
       <c r="A52" s="1">
         <v>46761</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C52">
@@ -1317,7 +1320,7 @@
       <c r="A53" s="1">
         <v>46943</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C53">
@@ -1336,7 +1339,7 @@
       <c r="A54" s="1">
         <v>47127</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C54">
@@ -1355,7 +1358,7 @@
       <c r="A55" s="1">
         <v>47308</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C55">
@@ -1374,7 +1377,7 @@
       <c r="A56" s="1">
         <v>47492</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C56">
@@ -1392,7 +1395,7 @@
       <c r="A57" s="1">
         <v>47673</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C57">
@@ -1407,40 +1410,240 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="1"/>
+      <c r="A58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B59" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="1"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B60" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C60">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:E73" si="3">+C60+D60</f>
+        <v>4.8600000000000003</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B61" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C61">
+        <v>1.64</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="1"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="1">
+        <v>46032</v>
+      </c>
+      <c r="B62" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C62">
+        <v>1.64</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
+      <c r="A63" s="1">
+        <v>46122</v>
+      </c>
+      <c r="B63" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C63">
+        <v>1.6</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="1"/>
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="A64" s="1">
+        <v>46213</v>
+      </c>
+      <c r="B64" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C64">
+        <v>1.62</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>46305</v>
+      </c>
+      <c r="B65" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C65">
+        <v>1.64</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>46397</v>
+      </c>
+      <c r="B66" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.64</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>46487</v>
+      </c>
+      <c r="B67" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C67">
+        <v>1.6</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>46578</v>
+      </c>
+      <c r="B68" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C68">
+        <v>1.62</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>46670</v>
+      </c>
+      <c r="B69" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C69">
+        <v>1.64</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>46762</v>
+      </c>
+      <c r="B70" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C70">
+        <v>1.64</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>46853</v>
+      </c>
+      <c r="B71" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C71">
+        <v>1.62</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>46944</v>
+      </c>
+      <c r="B72" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C72">
+        <v>1.62</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>47036</v>
+      </c>
+      <c r="B73" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C73">
+        <v>1.64</v>
+      </c>
+      <c r="D73">
+        <v>100</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>101.64</v>
+      </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1"/>
@@ -1519,10 +1722,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B13 B21 B37" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B13 B21 B37 B58" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
       <formula1>$J$1:$J$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D13 D21 D37" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D13 D21 D37 D58" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
       <formula1>$J$6:$J$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0392D7D6-0764-4CE5-8D4C-8B0B817C1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9D1E9B-B8E2-4D88-B709-0224CE69A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A2:N150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -466,395 +466,379 @@
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A1" t="s">
+    <row r="2" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>45562</v>
-      </c>
-      <c r="B2" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>45743</v>
+        <v>45562</v>
       </c>
       <c r="B3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3">
-        <v>3.47</v>
-      </c>
-      <c r="E3">
-        <f>+C3+D3</f>
-        <v>3.47</v>
-      </c>
-      <c r="G3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>45927</v>
+        <v>45743</v>
       </c>
       <c r="B4" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C4">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="E4">
         <f>+C4+D4</f>
-        <v>3.53</v>
-      </c>
+        <v>3.47</v>
+      </c>
+      <c r="G4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>46108</v>
+        <v>45927</v>
       </c>
       <c r="B5" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C5">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="E5">
         <f>+C5+D5</f>
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="I5" s="1"/>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>46292</v>
+        <v>46108</v>
       </c>
       <c r="B6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="E6">
         <f>+C6+D6</f>
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="I6" s="1"/>
-      <c r="J6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>46473</v>
+        <v>46292</v>
       </c>
       <c r="B7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C7">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="E7">
         <f>+C7+D7</f>
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>46657</v>
+        <v>46473</v>
       </c>
       <c r="B8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="E8">
         <f>+C8+D8</f>
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>46839</v>
+        <v>46657</v>
       </c>
       <c r="B9" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C9">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="E9">
         <f>+C9+D9</f>
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="I9" s="1"/>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>47023</v>
+        <v>46839</v>
       </c>
       <c r="B10" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C10">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="E10">
         <f>+C10+D10</f>
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>47204</v>
+        <v>47023</v>
       </c>
       <c r="B11" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C11">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="E11">
         <f>+C11+D11</f>
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>47388</v>
+        <v>47204</v>
       </c>
       <c r="B12" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C12">
-        <v>3.53</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
+        <v>3.47</v>
       </c>
       <c r="E12">
         <f>+C12+D12</f>
+        <v>3.47</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>47388</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13">
+        <v>3.53</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <f>+C13+D13</f>
         <v>103.53</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1">
-        <v>45357</v>
-      </c>
-      <c r="B14" s="4">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>45541</v>
+        <v>45357</v>
       </c>
       <c r="B15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C15">
-        <v>3.28</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ref="E15:E20" si="0">+C15+D15</f>
-        <v>3.28</v>
-      </c>
-      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.28</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:E21" si="0">+C16+D16</f>
+        <v>3.28</v>
+      </c>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
         <v>45722</v>
       </c>
-      <c r="B16" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C16">
+      <c r="B17" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17">
         <v>3.22</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <f t="shared" si="0"/>
         <v>3.22</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
         <v>45906</v>
       </c>
-      <c r="B17" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C17">
+      <c r="B18" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18">
         <v>3.28</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <f t="shared" si="0"/>
         <v>3.28</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
         <v>46087</v>
       </c>
-      <c r="B18" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C18">
+      <c r="B19" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19">
         <v>3.22</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <f t="shared" si="0"/>
         <v>3.22</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
         <v>46271</v>
       </c>
-      <c r="B19" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C19">
+      <c r="B20" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20">
         <v>3.28</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <f t="shared" si="0"/>
         <v>3.28</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1">
         <v>46452</v>
       </c>
-      <c r="B20" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C20">
+      <c r="B21" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21">
         <v>3.22</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>100</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <f t="shared" si="0"/>
         <v>103.22</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="s">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1">
-        <v>45575</v>
-      </c>
-      <c r="B22" s="4">
-        <v>6.5000000000000002E-2</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>45848</v>
+        <v>45575</v>
       </c>
       <c r="B23" s="4">
         <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C23">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23:E36" si="1">+C23+D23</f>
-        <v>4.8600000000000003</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>45940</v>
+        <v>45848</v>
       </c>
       <c r="B24" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C24">
-        <v>1.64</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>1.64</v>
+        <f t="shared" ref="E24:E37" si="1">+C24+D24</f>
+        <v>4.8600000000000003</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>46032</v>
+        <v>45940</v>
       </c>
       <c r="B25" s="4">
         <v>6.5000000000000002E-2</v>
@@ -870,55 +854,55 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>46122</v>
+        <v>46032</v>
       </c>
       <c r="B26" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C26">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>46213</v>
+        <v>46122</v>
       </c>
       <c r="B27" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C27">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>46305</v>
+        <v>46213</v>
       </c>
       <c r="B28" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C28">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>46397</v>
+        <v>46305</v>
       </c>
       <c r="B29" s="4">
         <v>6.5000000000000002E-2</v>
@@ -934,55 +918,55 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>46487</v>
+        <v>46397</v>
       </c>
       <c r="B30" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C30">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>46578</v>
+        <v>46487</v>
       </c>
       <c r="B31" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C31">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>46670</v>
+        <v>46578</v>
       </c>
       <c r="B32" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C32">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>46762</v>
+        <v>46670</v>
       </c>
       <c r="B33" s="4">
         <v>6.5000000000000002E-2</v>
@@ -998,23 +982,23 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>46853</v>
+        <v>46762</v>
       </c>
       <c r="B34" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C34">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>46944</v>
+        <v>46853</v>
       </c>
       <c r="B35" s="4">
         <v>6.5000000000000002E-2</v>
@@ -1030,79 +1014,79 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>47036</v>
+        <v>46944</v>
       </c>
       <c r="B36" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C36">
-        <v>1.64</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
+        <v>1.62</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>47036</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.64</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
         <v>101.64</v>
       </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>2</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1">
-        <v>43930</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>44386</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C39">
-        <v>0.16</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ref="E39:E57" si="2">+C39+D39</f>
-        <v>0.16</v>
+        <v>43930</v>
       </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>44570</v>
-      </c>
-      <c r="B40" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>44386</v>
+      </c>
+      <c r="B40" s="2">
+        <v>1.25E-3</v>
       </c>
       <c r="C40">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f t="shared" ref="E40:E58" si="2">+C40+D40</f>
+        <v>0.16</v>
       </c>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>44751</v>
+        <v>44570</v>
       </c>
       <c r="B41" s="4">
         <v>5.0000000000000001E-3</v>
@@ -1118,7 +1102,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>44935</v>
+        <v>44751</v>
       </c>
       <c r="B42" s="4">
         <v>5.0000000000000001E-3</v>
@@ -1134,7 +1118,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>45116</v>
+        <v>44935</v>
       </c>
       <c r="B43" s="4">
         <v>5.0000000000000001E-3</v>
@@ -1150,23 +1134,23 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>45300</v>
+        <v>45116</v>
       </c>
       <c r="B44" s="4">
-        <v>7.4999999999999997E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C44">
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>0.38</v>
+        <v>0.25</v>
       </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>45482</v>
+        <v>45300</v>
       </c>
       <c r="B45" s="4">
         <v>7.4999999999999997E-3</v>
@@ -1174,297 +1158,298 @@
       <c r="C45">
         <v>0.38</v>
       </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>4.38</v>
+        <v>0.38</v>
       </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>45666</v>
+        <v>45482</v>
       </c>
       <c r="B46" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C46">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>8.36</v>
+        <v>4.38</v>
       </c>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>45847</v>
+        <v>45666</v>
       </c>
       <c r="B47" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C47">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="D47">
         <v>8</v>
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>8.33</v>
+        <v>8.36</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>46031</v>
+        <v>45847</v>
       </c>
       <c r="B48" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C48">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="D48">
         <v>8</v>
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>8.3000000000000007</v>
+        <v>8.33</v>
       </c>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="1">
-        <v>46212</v>
+        <v>46031</v>
       </c>
       <c r="B49" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C49">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>8.27</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="1">
-        <v>46396</v>
+        <v>46212</v>
       </c>
       <c r="B50" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C50">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>8.24</v>
+        <v>8.27</v>
       </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="1">
-        <v>46577</v>
+        <v>46396</v>
       </c>
       <c r="B51" s="4">
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="C51">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="D51">
         <v>8</v>
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>8.2100000000000009</v>
+        <v>8.24</v>
       </c>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="1">
-        <v>46761</v>
+        <v>46577</v>
       </c>
       <c r="B52" s="4">
-        <v>1.7500000000000002E-2</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="C52">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="D52">
         <v>8</v>
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>8.42</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="1">
-        <v>46943</v>
+        <v>46761</v>
       </c>
       <c r="B53" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C53">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="D53">
         <v>8</v>
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>8.35</v>
+        <v>8.42</v>
       </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="1">
-        <v>47127</v>
+        <v>46943</v>
       </c>
       <c r="B54" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C54">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>8.2799999999999994</v>
+        <v>8.35</v>
       </c>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1">
-        <v>47308</v>
+        <v>47127</v>
       </c>
       <c r="B55" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C55">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D55">
         <v>8</v>
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>8.2100000000000009</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1">
-        <v>47492</v>
+        <v>47308</v>
       </c>
       <c r="B56" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C56">
-        <v>0.14000000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="D56">
         <v>8</v>
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>8.14</v>
-      </c>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1">
-        <v>47673</v>
+        <v>47492</v>
       </c>
       <c r="B57" s="4">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="C57">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D57">
         <v>8</v>
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>47673</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D58">
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:12">
+      <c r="A59" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="C58">
+      <c r="C59">
         <v>4</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="1">
-        <v>45575</v>
-      </c>
-      <c r="B59" s="4">
-        <v>6.5000000000000002E-2</v>
-      </c>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1">
-        <v>45848</v>
+        <v>45575</v>
       </c>
       <c r="B60" s="4">
         <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C60">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ref="E60:E73" si="3">+C60+D60</f>
-        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="1">
-        <v>45940</v>
+        <v>45848</v>
       </c>
       <c r="B61" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C61">
-        <v>1.64</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="E61">
-        <f t="shared" si="3"/>
-        <v>1.64</v>
+        <f t="shared" ref="E61:E74" si="3">+C61+D61</f>
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="1">
-        <v>46032</v>
+        <v>45940</v>
       </c>
       <c r="B62" s="4">
         <v>6.5000000000000002E-2</v>
@@ -1479,52 +1464,52 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1">
-        <v>46122</v>
+        <v>46032</v>
       </c>
       <c r="B63" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C63">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1">
-        <v>46213</v>
+        <v>46122</v>
       </c>
       <c r="B64" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C64">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1">
-        <v>46305</v>
+        <v>46213</v>
       </c>
       <c r="B65" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C65">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1">
-        <v>46397</v>
+        <v>46305</v>
       </c>
       <c r="B66" s="4">
         <v>6.5000000000000002E-2</v>
@@ -1539,52 +1524,52 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1">
-        <v>46487</v>
+        <v>46397</v>
       </c>
       <c r="B67" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C67">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="E67">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1">
-        <v>46578</v>
+        <v>46487</v>
       </c>
       <c r="B68" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C68">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="E68">
         <f t="shared" si="3"/>
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1">
-        <v>46670</v>
+        <v>46578</v>
       </c>
       <c r="B69" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C69">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1">
-        <v>46762</v>
+        <v>46670</v>
       </c>
       <c r="B70" s="4">
         <v>6.5000000000000002E-2</v>
@@ -1599,22 +1584,22 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>46853</v>
+        <v>46762</v>
       </c>
       <c r="B71" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C71">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1">
-        <v>46944</v>
+        <v>46853</v>
       </c>
       <c r="B72" s="4">
         <v>6.5000000000000002E-2</v>
@@ -1629,24 +1614,36 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1">
-        <v>47036</v>
+        <v>46944</v>
       </c>
       <c r="B73" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C73">
-        <v>1.64</v>
-      </c>
-      <c r="D73">
-        <v>100</v>
+        <v>1.62</v>
       </c>
       <c r="E73">
         <f t="shared" si="3"/>
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>47036</v>
+      </c>
+      <c r="B74" s="4">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C74">
+        <v>1.64</v>
+      </c>
+      <c r="D74">
+        <v>100</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
         <v>101.64</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="1"/>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1"/>
@@ -1720,13 +1717,16 @@
     <row r="149" spans="1:1">
       <c r="A149" s="1"/>
     </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B13 B21 B37 B58" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
-      <formula1>$J$1:$J$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B59 B38 B22 B14" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
+      <formula1>$J$2:$J$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D13 D21 D37 D58" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
-      <formula1>$J$6:$J$8</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D59 D38 D22 D14" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
+      <formula1>$J$7:$J$9</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bonos_flujos.xlsx
+++ b/bonos_flujos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29324"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9D1E9B-B8E2-4D88-B709-0224CE69A958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38FA232B-C525-4142-BE49-F52F2BCA5144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>PAE 2029 7,00%</t>
   </si>
@@ -68,6 +68,36 @@
   <si>
     <t>ARCOR 2028 6,5%</t>
   </si>
+  <si>
+    <t>GD29</t>
+  </si>
+  <si>
+    <t>GD35</t>
+  </si>
+  <si>
+    <t>GD38</t>
+  </si>
+  <si>
+    <t>GD41</t>
+  </si>
+  <si>
+    <t>GD46</t>
+  </si>
+  <si>
+    <t>AL29</t>
+  </si>
+  <si>
+    <t>AL30</t>
+  </si>
+  <si>
+    <t>AL35</t>
+  </si>
+  <si>
+    <t>AE38</t>
+  </si>
+  <si>
+    <t>AL41</t>
+  </si>
 </sst>
 </file>
 
@@ -76,13 +106,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -114,6 +150,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N150"/>
+  <dimension ref="A2:N780"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="B387" sqref="B386:B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1443,7 +1482,7 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E74" si="3">+C61+D61</f>
+        <f t="shared" ref="E61:E124" si="3">+C61+D61</f>
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -1645,87 +1684,8394 @@
         <v>101.64</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="1"/>
+    <row r="75" spans="1:5">
+      <c r="A75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B76" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B77" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D77" s="6">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B78" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C78" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D79" s="6">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B80" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D80" s="6">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B81" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C81" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B82" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C82" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="6">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B83" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C83" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="6">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B84" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C84" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="6">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B85" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C85" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D85" s="6">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="3"/>
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B86" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C86" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D86" s="6">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="3"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B87" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C87" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D87" s="6">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B88" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C88" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D88" s="6">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="3"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B89" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C89" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D89" s="6">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="3"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B90" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C90" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D90" s="6">
+        <v>10</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="3"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B91" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C91" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D91" s="6">
+        <v>10</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="3"/>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B92" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C92" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D92" s="6">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="3"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B93" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C93" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D93" s="6">
+        <v>10</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="3"/>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B95" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B96" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C96" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D96" s="6">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B97" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D97" s="6">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B98" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C98" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D98" s="6">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B99" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C99" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B100" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C100" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D100" s="6">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B101" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C101" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="D101" s="6">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B102" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C102" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="D102" s="6">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="3"/>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B103" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C103" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="D103" s="6">
+        <v>8</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="3"/>
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B104" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C104" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="D104" s="6">
+        <v>8</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="3"/>
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B105" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C105" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D105" s="6">
+        <v>8</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B106" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C106" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D106" s="6">
+        <v>8</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="3"/>
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B107" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C107" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="D107" s="6">
+        <v>8</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="3"/>
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B108" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C108" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="D108" s="6">
+        <v>8</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="3"/>
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B109" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C109" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="D109" s="6">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="3"/>
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B110" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C110" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D110" s="6">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="3"/>
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B111" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C111" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D111" s="6">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="3"/>
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B112" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C112" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="D112" s="6">
+        <v>8</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="3"/>
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C113" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D113" s="6">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="3"/>
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B114" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C114" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D114" s="6">
+        <v>8</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="3"/>
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B116" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B117" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C117" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D117" s="6">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B118" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C118" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D118" s="6">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B119" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D119" s="6">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="3"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B120" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D120" s="6">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B121" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C121" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="6">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B122" s="8">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D122" s="6">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="3"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B123" s="8">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D123" s="6">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="3"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B124" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C124" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D124" s="6">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="3"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B125" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C125" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D125" s="6">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ref="E125:E188" si="4">+C125+D125</f>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B126" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C126" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D126" s="6">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="4"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B127" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C127" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D127" s="6">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="4"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B128" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C128" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D128" s="6">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B129" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C129" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D129" s="6">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="4"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B130" s="8">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C130" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="D130" s="6">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="4"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B131" s="8">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C131" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="D131" s="6">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="4"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B132" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C132" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B133" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C133" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B134" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C134" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B135" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C135" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D135" s="6">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B136" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C136" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D136" s="6">
+        <v>10</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B137" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C137" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="D137" s="6">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B138" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C138" s="6">
+        <v>2</v>
+      </c>
+      <c r="D138" s="6">
+        <v>10</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B139" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C139" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D139" s="6">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B140" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C140" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D140" s="6">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B141" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C141" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D141" s="6">
+        <v>10</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B142" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
+      <c r="D142" s="6">
+        <v>10</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B143" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D143" s="6">
+        <v>10</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B144" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D144" s="6">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="4"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B145" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D145" s="6">
+        <v>10</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="4"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B147" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B148" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C148" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D148" s="6">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B149" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="6">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B150" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="D150" s="6">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B151" s="8">
+        <v>3.875E-2</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="D151" s="6">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="4"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B152" s="8">
+        <v>3.875E-2</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="D152" s="6">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="4"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B153" s="8">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C153" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="D153" s="6">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="4"/>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B154" s="8">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C154" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="D154" s="6">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="4"/>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B155" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C155" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D155" s="6">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B156" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C156" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D156" s="6">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B157" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C157" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D157" s="6">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B158" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C158" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D158" s="6">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B159" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C159" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D159" s="6">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B160" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C160" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D160" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="4"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B161" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C161" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="D161" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="4"/>
+        <v>6.9399999999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B162" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C162" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="D162" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="4"/>
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B163" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C163" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="D163" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="4"/>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B164" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C164" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D164" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="4"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B165" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C165" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="D165" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="4"/>
+        <v>6.4799999999999995</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B166" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C166" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="D166" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="4"/>
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B167" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C167" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D167" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="4"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B168" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C168" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="D168" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="4"/>
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B169" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C169" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="D169" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="4"/>
+        <v>6.0299999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B170" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C170" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="D170" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="4"/>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B171" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C171" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D171" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="4"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B172" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C172" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D172" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="4"/>
+        <v>5.6899999999999995</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B173" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C173" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="D173" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="4"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B174" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C174" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="D174" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="4"/>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B175" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C175" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D175" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="4"/>
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B176" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C176" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="D176" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="4"/>
+        <v>5.2299999999999995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="7">
+        <v>49683</v>
+      </c>
+      <c r="B177" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C177" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D177" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="4"/>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="7">
+        <v>49865</v>
+      </c>
+      <c r="B178" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C178" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D178" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="7">
+        <v>50049</v>
+      </c>
+      <c r="B179" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C179" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="D179" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="4"/>
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="7">
+        <v>50230</v>
+      </c>
+      <c r="B180" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C180" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="D180" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="4"/>
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="7">
+        <v>50416</v>
+      </c>
+      <c r="B181" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C181" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="D181" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="4"/>
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B183" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
+      <c r="E183">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B184" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C184" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="D184" s="6">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="4"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B185" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C185" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D185" s="6">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B186" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C186" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D186" s="6">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B187" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C187" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D187" s="6">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B188" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C188" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D188" s="6">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B189" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C189" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D189" s="6">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ref="E189:E252" si="5">+C189+D189</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B190" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C190" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D190" s="6">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B191" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C191" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D191" s="6">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B192" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C192" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D192" s="6">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B193" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C193" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D193" s="6">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B194" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C194" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D194" s="6">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B195" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C195" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D195" s="6">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B196" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C196" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D196" s="6">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B197" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C197" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D197" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="5"/>
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B198" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C198" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="D198" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="5"/>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B199" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C199" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="D199" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="5"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B200" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C200" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="D200" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="5"/>
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B201" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C201" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="D201" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="5"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B202" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C202" s="6">
+        <v>2</v>
+      </c>
+      <c r="D202" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E202">
+        <f t="shared" si="5"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B203" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C203" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="D203" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E203">
+        <f t="shared" si="5"/>
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B204" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C204" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="D204" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E204">
+        <f t="shared" si="5"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B205" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C205" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="D205" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E205">
+        <f t="shared" si="5"/>
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B206" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C206" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="D206" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E206">
+        <f t="shared" si="5"/>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B207" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C207" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="D207" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E207">
+        <f t="shared" si="5"/>
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B208" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C208" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="D208" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E208">
+        <f t="shared" si="5"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B209" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C209" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="D209" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E209">
+        <f t="shared" si="5"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B210" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C210" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="D210" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E210">
+        <f t="shared" si="5"/>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B211" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C211" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="D211" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="5"/>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B212" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C212" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D212" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E212">
+        <f t="shared" si="5"/>
+        <v>4.6999999999999993</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="7">
+        <v>49683</v>
+      </c>
+      <c r="B213" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C213" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="D213" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E213">
+        <f t="shared" si="5"/>
+        <v>4.6099999999999994</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="7">
+        <v>49865</v>
+      </c>
+      <c r="B214" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C214" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="D214" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E214">
+        <f t="shared" si="5"/>
+        <v>4.5299999999999994</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="7">
+        <v>50049</v>
+      </c>
+      <c r="B215" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C215" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="D215" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E215">
+        <f t="shared" si="5"/>
+        <v>4.4399999999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="7">
+        <v>50230</v>
+      </c>
+      <c r="B216" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C216" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="D216" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E216">
+        <f t="shared" si="5"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="7">
+        <v>50416</v>
+      </c>
+      <c r="B217" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C217" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D217" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E217">
+        <f t="shared" si="5"/>
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="7">
+        <v>50595</v>
+      </c>
+      <c r="B218" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C218" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D218" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E218">
+        <f t="shared" si="5"/>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="7">
+        <v>50780</v>
+      </c>
+      <c r="B219" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C219" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="D219" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E219">
+        <f t="shared" si="5"/>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="7">
+        <v>50962</v>
+      </c>
+      <c r="B220" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C220" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="D220" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E220">
+        <f t="shared" si="5"/>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="7">
+        <v>51144</v>
+      </c>
+      <c r="B221" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C221" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D221" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E221">
+        <f t="shared" si="5"/>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="7">
+        <v>51326</v>
+      </c>
+      <c r="B222" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C222" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="D222" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="5"/>
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="7">
+        <v>51510</v>
+      </c>
+      <c r="B223" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C223" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="D223" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E223">
+        <f t="shared" si="5"/>
+        <v>3.7399999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="7">
+        <v>51691</v>
+      </c>
+      <c r="B224" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C224" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="D224" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E224">
+        <f t="shared" si="5"/>
+        <v>3.6599999999999997</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B226" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B227" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C227" s="6">
+        <v>1.41</v>
+      </c>
+      <c r="D227" s="6">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <f t="shared" si="5"/>
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B228" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C228" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D228" s="6">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B229" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C229" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D229" s="6">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <f t="shared" si="5"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B230" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C230" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D230" s="6">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B231" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C231" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D231" s="6">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B232" s="8">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="C232" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D232" s="6">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <f t="shared" si="5"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B233" s="8">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="C233" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D233" s="6">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="5"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B234" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C234" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D234" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E234">
+        <f t="shared" si="5"/>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B235" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C235" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="D235" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E235">
+        <f t="shared" si="5"/>
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B236" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C236" s="6">
+        <v>1.97</v>
+      </c>
+      <c r="D236" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E236">
+        <f t="shared" si="5"/>
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B237" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C237" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="D237" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E237">
+        <f t="shared" si="5"/>
+        <v>4.1899999999999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B238" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C238" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="D238" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E238">
+        <f t="shared" si="5"/>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B239" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C239" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="D239" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E239">
+        <f t="shared" si="5"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B240" s="8">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="C240" s="6">
+        <v>1.89</v>
+      </c>
+      <c r="D240" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E240">
+        <f t="shared" si="5"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B241" s="8">
+        <v>4.3749999999999997E-2</v>
+      </c>
+      <c r="C241" s="6">
+        <v>1.84</v>
+      </c>
+      <c r="D241" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E241">
+        <f t="shared" si="5"/>
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B242" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C242" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D242" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E242">
+        <f t="shared" si="5"/>
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B243" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C243" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="D243" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E243">
+        <f t="shared" si="5"/>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B244" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C244" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="D244" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="5"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B245" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C245" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="D245" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E245">
+        <f t="shared" si="5"/>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B246" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C246" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="D246" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E246">
+        <f t="shared" si="5"/>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B247" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C247" s="6">
+        <v>1.76</v>
+      </c>
+      <c r="D247" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E247">
+        <f t="shared" si="5"/>
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B248" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C248" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D248" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E248">
+        <f t="shared" si="5"/>
+        <v>3.9699999999999998</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B249" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C249" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="D249" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E249">
+        <f t="shared" si="5"/>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B250" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C250" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="D250" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E250">
+        <f t="shared" si="5"/>
+        <v>3.8600000000000003</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B251" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C251" s="6">
+        <v>1.53</v>
+      </c>
+      <c r="D251" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E251">
+        <f t="shared" si="5"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B252" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C252" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="D252" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E252">
+        <f t="shared" si="5"/>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B253" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C253" s="6">
+        <v>1.42</v>
+      </c>
+      <c r="D253" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E253">
+        <f t="shared" ref="E253:E316" si="6">+C253+D253</f>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B254" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C254" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="D254" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E254">
+        <f t="shared" si="6"/>
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B255" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C255" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="D255" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="6"/>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="7">
+        <v>49683</v>
+      </c>
+      <c r="B256" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C256" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D256" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E256">
+        <f t="shared" si="6"/>
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="7">
+        <v>49865</v>
+      </c>
+      <c r="B257" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C257" s="6">
+        <v>1.19</v>
+      </c>
+      <c r="D257" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E257">
+        <f t="shared" si="6"/>
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="7">
+        <v>50049</v>
+      </c>
+      <c r="B258" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C258" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D258" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E258">
+        <f t="shared" si="6"/>
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="7">
+        <v>50230</v>
+      </c>
+      <c r="B259" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C259" s="6">
+        <v>1.08</v>
+      </c>
+      <c r="D259" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E259">
+        <f t="shared" si="6"/>
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="7">
+        <v>50416</v>
+      </c>
+      <c r="B260" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C260" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="D260" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E260">
+        <f t="shared" si="6"/>
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="7">
+        <v>50595</v>
+      </c>
+      <c r="B261" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C261" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D261" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E261">
+        <f t="shared" si="6"/>
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="7">
+        <v>50780</v>
+      </c>
+      <c r="B262" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C262" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="D262" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E262">
+        <f t="shared" si="6"/>
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="7">
+        <v>50962</v>
+      </c>
+      <c r="B263" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C263" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D263" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E263">
+        <f t="shared" si="6"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="7">
+        <v>51144</v>
+      </c>
+      <c r="B264" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C264" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D264" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E264">
+        <f t="shared" si="6"/>
+        <v>3.0700000000000003</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="7">
+        <v>51326</v>
+      </c>
+      <c r="B265" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C265" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="D265" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E265">
+        <f t="shared" si="6"/>
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="7">
+        <v>51510</v>
+      </c>
+      <c r="B266" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C266" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="D266" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E266">
+        <f t="shared" si="6"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="7">
+        <v>51691</v>
+      </c>
+      <c r="B267" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C267" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="D267" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E267">
+        <f t="shared" si="6"/>
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="7">
+        <v>51875</v>
+      </c>
+      <c r="B268" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C268" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D268" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E268">
+        <f t="shared" si="6"/>
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="7">
+        <v>52056</v>
+      </c>
+      <c r="B269" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C269" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="D269" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E269">
+        <f t="shared" si="6"/>
+        <v>2.7800000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="7">
+        <v>52240</v>
+      </c>
+      <c r="B270" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C270" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D270" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E270">
+        <f t="shared" si="6"/>
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="7">
+        <v>52421</v>
+      </c>
+      <c r="B271" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C271" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D271" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E271">
+        <f t="shared" si="6"/>
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="7">
+        <v>52607</v>
+      </c>
+      <c r="B272" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C272" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="D272" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E272">
+        <f t="shared" si="6"/>
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="7">
+        <v>52789</v>
+      </c>
+      <c r="B273" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C273" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D273" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E273">
+        <f t="shared" si="6"/>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="7">
+        <v>52971</v>
+      </c>
+      <c r="B274" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C274" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="D274" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E274">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="7">
+        <v>53153</v>
+      </c>
+      <c r="B275" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C275" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="D275" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E275">
+        <f t="shared" si="6"/>
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="7">
+        <v>53336</v>
+      </c>
+      <c r="B276" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C276" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="D276" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E276">
+        <f t="shared" si="6"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="7">
+        <v>53517</v>
+      </c>
+      <c r="B277" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C277" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D277" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="E277">
+        <f t="shared" si="6"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B279" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C279" s="6"/>
+      <c r="D279" s="6"/>
+      <c r="E279">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B280" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C280" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D280" s="6">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B281" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C281" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D281" s="6">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B282" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C282" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D282" s="6">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B283" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C283" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D283" s="6">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B284" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C284" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D284" s="6">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B285" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C285" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D285" s="6">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B286" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C286" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D286" s="6">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B287" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C287" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D287" s="6">
+        <v>10</v>
+      </c>
+      <c r="E287">
+        <f t="shared" si="6"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B288" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C288" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D288" s="6">
+        <v>10</v>
+      </c>
+      <c r="E288">
+        <f t="shared" si="6"/>
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B289" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C289" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D289" s="6">
+        <v>10</v>
+      </c>
+      <c r="E289">
+        <f t="shared" si="6"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B290" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C290" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D290" s="6">
+        <v>10</v>
+      </c>
+      <c r="E290">
+        <f t="shared" si="6"/>
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B291" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C291" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D291" s="6">
+        <v>10</v>
+      </c>
+      <c r="E291">
+        <f t="shared" si="6"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B292" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C292" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D292" s="6">
+        <v>10</v>
+      </c>
+      <c r="E292">
+        <f t="shared" si="6"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B293" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C293" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D293" s="6">
+        <v>10</v>
+      </c>
+      <c r="E293">
+        <f t="shared" si="6"/>
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B294" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C294" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D294" s="6">
+        <v>10</v>
+      </c>
+      <c r="E294">
+        <f t="shared" si="6"/>
+        <v>10.15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B295" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C295" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D295" s="6">
+        <v>10</v>
+      </c>
+      <c r="E295">
+        <f t="shared" si="6"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B296" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="C296" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D296" s="6">
+        <v>10</v>
+      </c>
+      <c r="E296">
+        <f t="shared" si="6"/>
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B298" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C298" s="6"/>
+      <c r="D298" s="6"/>
+      <c r="E298">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B299" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C299" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D299" s="6">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <f t="shared" si="6"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B300" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C300" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D300" s="6">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B301" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C301" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D301" s="6">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B302" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C302" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D302" s="6">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B303" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C303" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D303" s="6">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B304" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C304" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="D304" s="6">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B305" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C305" s="6">
+        <v>0.38</v>
+      </c>
+      <c r="D305" s="6">
+        <v>4</v>
+      </c>
+      <c r="E305">
+        <f t="shared" si="6"/>
+        <v>4.38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B306" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C306" s="6">
+        <v>0.36</v>
+      </c>
+      <c r="D306" s="6">
+        <v>8</v>
+      </c>
+      <c r="E306">
+        <f t="shared" si="6"/>
+        <v>8.36</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B307" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C307" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="D307" s="6">
+        <v>8</v>
+      </c>
+      <c r="E307">
+        <f t="shared" si="6"/>
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B308" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C308" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D308" s="6">
+        <v>8</v>
+      </c>
+      <c r="E308">
+        <f t="shared" si="6"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B309" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C309" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="D309" s="6">
+        <v>8</v>
+      </c>
+      <c r="E309">
+        <f t="shared" si="6"/>
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B310" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C310" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="D310" s="6">
+        <v>8</v>
+      </c>
+      <c r="E310">
+        <f t="shared" si="6"/>
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B311" s="8">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="C311" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="D311" s="6">
+        <v>8</v>
+      </c>
+      <c r="E311">
+        <f t="shared" si="6"/>
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B312" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C312" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="D312" s="6">
+        <v>8</v>
+      </c>
+      <c r="E312">
+        <f t="shared" si="6"/>
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B313" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C313" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D313" s="6">
+        <v>8</v>
+      </c>
+      <c r="E313">
+        <f t="shared" si="6"/>
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B314" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C314" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D314" s="6">
+        <v>8</v>
+      </c>
+      <c r="E314">
+        <f t="shared" si="6"/>
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B315" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C315" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="D315" s="6">
+        <v>8</v>
+      </c>
+      <c r="E315">
+        <f t="shared" si="6"/>
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B316" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C316" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D316" s="6">
+        <v>8</v>
+      </c>
+      <c r="E316">
+        <f t="shared" si="6"/>
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B317" s="8">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C317" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D317" s="6">
+        <v>8</v>
+      </c>
+      <c r="E317">
+        <f t="shared" ref="E317:E380" si="7">+C317+D317</f>
+        <v>8.07</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B319" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C319" s="6"/>
+      <c r="D319" s="6"/>
+      <c r="E319">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B320" s="8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C320" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D320" s="6">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <f t="shared" si="7"/>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B321" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C321" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D321" s="6">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <f t="shared" si="7"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B322" s="8">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C322" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D322" s="6">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <f t="shared" si="7"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B323" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C323" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D323" s="6">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B324" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C324" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D324" s="6">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B325" s="8">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="C325" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D325" s="6">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <f t="shared" si="7"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B326" s="8">
+        <v>3.6249999999999998E-2</v>
+      </c>
+      <c r="C326" s="6">
+        <v>1.81</v>
+      </c>
+      <c r="D326" s="6">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <f t="shared" si="7"/>
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B327" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C327" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D327" s="6">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <f t="shared" si="7"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B328" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C328" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D328" s="6">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <f t="shared" si="7"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B329" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C329" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D329" s="6">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <f t="shared" si="7"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B330" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C330" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D330" s="6">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <f t="shared" si="7"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B331" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C331" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D331" s="6">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <f t="shared" si="7"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B332" s="8">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C332" s="6">
+        <v>2.06</v>
+      </c>
+      <c r="D332" s="6">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <f t="shared" si="7"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B333" s="8">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C333" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="D333" s="6">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <f t="shared" si="7"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B334" s="8">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C334" s="6">
+        <v>2.38</v>
+      </c>
+      <c r="D334" s="6">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <f t="shared" si="7"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B335" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C335" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D335" s="6">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B336" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C336" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D336" s="6">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B337" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C337" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D337" s="6">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B338" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C338" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D338" s="6">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B339" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C339" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D339" s="6">
+        <v>10</v>
+      </c>
+      <c r="E339">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B340" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C340" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="D340" s="6">
+        <v>10</v>
+      </c>
+      <c r="E340">
+        <f t="shared" si="7"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B341" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C341" s="6">
+        <v>2</v>
+      </c>
+      <c r="D341" s="6">
+        <v>10</v>
+      </c>
+      <c r="E341">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B342" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C342" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D342" s="6">
+        <v>10</v>
+      </c>
+      <c r="E342">
+        <f t="shared" si="7"/>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B343" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C343" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D343" s="6">
+        <v>10</v>
+      </c>
+      <c r="E343">
+        <f t="shared" si="7"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B344" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C344" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D344" s="6">
+        <v>10</v>
+      </c>
+      <c r="E344">
+        <f t="shared" si="7"/>
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B345" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C345" s="6">
+        <v>1</v>
+      </c>
+      <c r="D345" s="6">
+        <v>10</v>
+      </c>
+      <c r="E345">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B346" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C346" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D346" s="6">
+        <v>10</v>
+      </c>
+      <c r="E346">
+        <f t="shared" si="7"/>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B347" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C347" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D347" s="6">
+        <v>10</v>
+      </c>
+      <c r="E347">
+        <f t="shared" si="7"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B348" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C348" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D348" s="6">
+        <v>10</v>
+      </c>
+      <c r="E348">
+        <f t="shared" si="7"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B349" t="s">
+        <v>5</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B350" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C350" s="6"/>
+      <c r="D350" s="6"/>
+      <c r="E350">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B351" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C351" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D351" s="6">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B352" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C352" s="6">
+        <v>1</v>
+      </c>
+      <c r="D352" s="6">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B353" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="C353" s="6">
+        <v>1</v>
+      </c>
+      <c r="D353" s="6">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B354" s="8">
+        <v>3.875E-2</v>
+      </c>
+      <c r="C354" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="D354" s="6">
+        <v>0</v>
+      </c>
+      <c r="E354">
+        <f t="shared" si="7"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B355" s="8">
+        <v>3.875E-2</v>
+      </c>
+      <c r="C355" s="6">
+        <v>1.94</v>
+      </c>
+      <c r="D355" s="6">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <f t="shared" si="7"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B356" s="8">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C356" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="D356" s="6">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <f t="shared" si="7"/>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B357" s="8">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C357" s="6">
+        <v>2.13</v>
+      </c>
+      <c r="D357" s="6">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <f t="shared" si="7"/>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B358" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C358" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D358" s="6">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B359" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C359" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D359" s="6">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B360" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C360" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D360" s="6">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B361" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C361" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D361" s="6">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B362" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C362" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D362" s="6">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <f t="shared" si="7"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B363" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C363" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="D363" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E363">
+        <f t="shared" si="7"/>
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B364" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C364" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="D364" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E364">
+        <f t="shared" si="7"/>
+        <v>6.9399999999999995</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B365" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C365" s="6">
+        <v>2.27</v>
+      </c>
+      <c r="D365" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E365">
+        <f t="shared" si="7"/>
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B366" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C366" s="6">
+        <v>2.16</v>
+      </c>
+      <c r="D366" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E366">
+        <f t="shared" si="7"/>
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B367" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C367" s="6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D367" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E367">
+        <f t="shared" si="7"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B368" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C368" s="6">
+        <v>1.93</v>
+      </c>
+      <c r="D368" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E368">
+        <f t="shared" si="7"/>
+        <v>6.4799999999999995</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B369" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C369" s="6">
+        <v>1.82</v>
+      </c>
+      <c r="D369" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E369">
+        <f t="shared" si="7"/>
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B370" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C370" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D370" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E370">
+        <f t="shared" si="7"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B371" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C371" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="D371" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E371">
+        <f t="shared" si="7"/>
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B372" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C372" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="D372" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E372">
+        <f t="shared" si="7"/>
+        <v>6.0299999999999994</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B373" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C373" s="6">
+        <v>1.36</v>
+      </c>
+      <c r="D373" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E373">
+        <f t="shared" si="7"/>
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B374" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C374" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D374" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E374">
+        <f t="shared" si="7"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B375" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C375" s="6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D375" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E375">
+        <f t="shared" si="7"/>
+        <v>5.6899999999999995</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B376" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C376" s="6">
+        <v>1.02</v>
+      </c>
+      <c r="D376" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E376">
+        <f t="shared" si="7"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B377" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C377" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="D377" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E377">
+        <f t="shared" si="7"/>
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B378" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C378" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D378" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E378">
+        <f t="shared" si="7"/>
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B379" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C379" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="D379" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E379">
+        <f t="shared" si="7"/>
+        <v>5.2299999999999995</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="7">
+        <v>49683</v>
+      </c>
+      <c r="B380" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C380" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D380" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E380">
+        <f t="shared" si="7"/>
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="7">
+        <v>49865</v>
+      </c>
+      <c r="B381" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C381" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D381" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E381">
+        <f t="shared" ref="E381:E427" si="8">+C381+D381</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="7">
+        <v>50049</v>
+      </c>
+      <c r="B382" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C382" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="D382" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E382">
+        <f t="shared" si="8"/>
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="7">
+        <v>50230</v>
+      </c>
+      <c r="B383" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C383" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="D383" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E383">
+        <f t="shared" si="8"/>
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="7">
+        <v>50416</v>
+      </c>
+      <c r="B384" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C384" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="D384" s="6">
+        <v>4.55</v>
+      </c>
+      <c r="E384">
+        <f t="shared" si="8"/>
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B385" t="s">
+        <v>5</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="7">
+        <v>43930</v>
+      </c>
+      <c r="B386" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C386" s="6"/>
+      <c r="D386" s="6"/>
+      <c r="E386">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="7">
+        <v>44389</v>
+      </c>
+      <c r="B387" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C387" s="6">
+        <v>3.13</v>
+      </c>
+      <c r="D387" s="6">
+        <v>0</v>
+      </c>
+      <c r="E387">
+        <f t="shared" si="8"/>
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="7">
+        <v>44571</v>
+      </c>
+      <c r="B388" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C388" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D388" s="6">
+        <v>0</v>
+      </c>
+      <c r="E388">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="7">
+        <v>44753</v>
+      </c>
+      <c r="B389" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C389" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="D389" s="6">
+        <v>0</v>
+      </c>
+      <c r="E389">
+        <f t="shared" si="8"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="7">
+        <v>44935</v>
+      </c>
+      <c r="B390" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C390" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D390" s="6">
+        <v>0</v>
+      </c>
+      <c r="E390">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="7">
+        <v>45117</v>
+      </c>
+      <c r="B391" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C391" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D391" s="6">
+        <v>0</v>
+      </c>
+      <c r="E391">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="7">
+        <v>45300</v>
+      </c>
+      <c r="B392" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C392" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D392" s="6">
+        <v>0</v>
+      </c>
+      <c r="E392">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="7">
+        <v>45483</v>
+      </c>
+      <c r="B393" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C393" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D393" s="6">
+        <v>0</v>
+      </c>
+      <c r="E393">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="7">
+        <v>45666</v>
+      </c>
+      <c r="B394" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C394" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D394" s="6">
+        <v>0</v>
+      </c>
+      <c r="E394">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="7">
+        <v>45848</v>
+      </c>
+      <c r="B395" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C395" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D395" s="6">
+        <v>0</v>
+      </c>
+      <c r="E395">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="7">
+        <v>46031</v>
+      </c>
+      <c r="B396" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C396" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D396" s="6">
+        <v>0</v>
+      </c>
+      <c r="E396">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="7">
+        <v>46213</v>
+      </c>
+      <c r="B397" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C397" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D397" s="6">
+        <v>0</v>
+      </c>
+      <c r="E397">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="7">
+        <v>46398</v>
+      </c>
+      <c r="B398" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C398" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D398" s="6">
+        <v>0</v>
+      </c>
+      <c r="E398">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="7">
+        <v>46580</v>
+      </c>
+      <c r="B399" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C399" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D399" s="6">
+        <v>0</v>
+      </c>
+      <c r="E399">
+        <f t="shared" si="8"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="7">
+        <v>46762</v>
+      </c>
+      <c r="B400" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C400" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="D400" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E400">
+        <f t="shared" si="8"/>
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="7">
+        <v>46944</v>
+      </c>
+      <c r="B401" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C401" s="6">
+        <v>1.69</v>
+      </c>
+      <c r="D401" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E401">
+        <f t="shared" si="8"/>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="7">
+        <v>47127</v>
+      </c>
+      <c r="B402" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C402" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="D402" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E402">
+        <f t="shared" si="8"/>
+        <v>5.1999999999999993</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="7">
+        <v>47309</v>
+      </c>
+      <c r="B403" s="8">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C403" s="6">
+        <v>1.56</v>
+      </c>
+      <c r="D403" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E403">
+        <f t="shared" si="8"/>
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="7">
+        <v>47492</v>
+      </c>
+      <c r="B404" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C404" s="6">
+        <v>2.09</v>
+      </c>
+      <c r="D404" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E404">
+        <f t="shared" si="8"/>
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="7">
+        <v>47674</v>
+      </c>
+      <c r="B405" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C405" s="6">
+        <v>2</v>
+      </c>
+      <c r="D405" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E405">
+        <f t="shared" si="8"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="7">
+        <v>47857</v>
+      </c>
+      <c r="B406" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C406" s="6">
+        <v>1.92</v>
+      </c>
+      <c r="D406" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E406">
+        <f t="shared" si="8"/>
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="7">
+        <v>48039</v>
+      </c>
+      <c r="B407" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C407" s="6">
+        <v>1.83</v>
+      </c>
+      <c r="D407" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E407">
+        <f t="shared" si="8"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="7">
+        <v>48222</v>
+      </c>
+      <c r="B408" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C408" s="6">
+        <v>1.74</v>
+      </c>
+      <c r="D408" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E408">
+        <f t="shared" si="8"/>
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="7">
+        <v>48404</v>
+      </c>
+      <c r="B409" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C409" s="6">
+        <v>1.65</v>
+      </c>
+      <c r="D409" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E409">
+        <f t="shared" si="8"/>
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="7">
+        <v>48589</v>
+      </c>
+      <c r="B410" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C410" s="6">
+        <v>1.57</v>
+      </c>
+      <c r="D410" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E410">
+        <f t="shared" si="8"/>
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="7">
+        <v>48771</v>
+      </c>
+      <c r="B411" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C411" s="6">
+        <v>1.48</v>
+      </c>
+      <c r="D411" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E411">
+        <f t="shared" si="8"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="7">
+        <v>48953</v>
+      </c>
+      <c r="B412" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C412" s="6">
+        <v>1.39</v>
+      </c>
+      <c r="D412" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E412">
+        <f t="shared" si="8"/>
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="7">
+        <v>49135</v>
+      </c>
+      <c r="B413" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C413" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="D413" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E413">
+        <f t="shared" si="8"/>
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="7">
+        <v>49318</v>
+      </c>
+      <c r="B414" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C414" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="D414" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E414">
+        <f t="shared" si="8"/>
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="7">
+        <v>49499</v>
+      </c>
+      <c r="B415" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C415" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D415" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E415">
+        <f t="shared" si="8"/>
+        <v>4.6999999999999993</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="7">
+        <v>49683</v>
+      </c>
+      <c r="B416" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C416" s="6">
+        <v>1.04</v>
+      </c>
+      <c r="D416" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E416">
+        <f t="shared" si="8"/>
+        <v>4.6099999999999994</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="7">
+        <v>49865</v>
+      </c>
+      <c r="B417" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C417" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="D417" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E417">
+        <f t="shared" si="8"/>
+        <v>4.5299999999999994</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="7">
+        <v>50049</v>
+      </c>
+      <c r="B418" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C418" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="D418" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E418">
+        <f t="shared" si="8"/>
+        <v>4.4399999999999995</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="7">
+        <v>50230</v>
+      </c>
+      <c r="B419" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C419" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="D419" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E419">
+        <f t="shared" si="8"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="7">
+        <v>50416</v>
+      </c>
+      <c r="B420" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C420" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D420" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E420">
+        <f t="shared" si="8"/>
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="7">
+        <v>50595</v>
+      </c>
+      <c r="B421" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C421" s="6">
+        <v>0.61</v>
+      </c>
+      <c r="D421" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E421">
+        <f t="shared" si="8"/>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="7">
+        <v>50780</v>
+      </c>
+      <c r="B422" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C422" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="D422" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E422">
+        <f t="shared" si="8"/>
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="7">
+        <v>50962</v>
+      </c>
+      <c r="B423" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C423" s="6">
+        <v>0.44</v>
+      </c>
+      <c r="D423" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E423">
+        <f t="shared" si="8"/>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="7">
+        <v>51144</v>
+      </c>
+      <c r="B424" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C424" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="D424" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E424">
+        <f t="shared" si="8"/>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="7">
+        <v>51326</v>
+      </c>
+      <c r="B425" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C425" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="D425" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E425">
+        <f t="shared" si="8"/>
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="7">
+        <v>51510</v>
+      </c>
+      <c r="B426" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C426" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="D426" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E426">
+        <f t="shared" si="8"/>
+        <v>3.7399999999999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="7">
+        <v>51691</v>
+      </c>
+      <c r="B427" s="8">
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="C427" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="D427" s="6">
+        <v>3.57</v>
+      </c>
+      <c r="E427">
+        <f t="shared" si="8"/>
+        <v>3.6599999999999997</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" s="6"/>
+      <c r="D428" s="5"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" s="7"/>
+      <c r="B429" s="6"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="6"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="7"/>
+      <c r="B430" s="8"/>
+      <c r="C430" s="6"/>
+      <c r="D430" s="6"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" s="7"/>
+      <c r="B431" s="8"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="6"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" s="7"/>
+      <c r="B432" s="8"/>
+      <c r="C432" s="6"/>
+      <c r="D432" s="6"/>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="7"/>
+      <c r="B433" s="8"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="6"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="7"/>
+      <c r="B434" s="8"/>
+      <c r="C434" s="6"/>
+      <c r="D434" s="6"/>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="7"/>
+      <c r="B435" s="8"/>
+      <c r="C435" s="6"/>
+      <c r="D435" s="6"/>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="7"/>
+      <c r="B436" s="8"/>
+      <c r="C436" s="6"/>
+      <c r="D436" s="6"/>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="7"/>
+      <c r="B437" s="8"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="6"/>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="7"/>
+      <c r="B438" s="8"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="6"/>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="7"/>
+      <c r="B439" s="8"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="6"/>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="7"/>
+      <c r="B440" s="8"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="6"/>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="7"/>
+      <c r="B441" s="8"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="6"/>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="7"/>
+      <c r="B442" s="8"/>
+      <c r="C442" s="6"/>
+      <c r="D442" s="6"/>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="7"/>
+      <c r="B443" s="8"/>
+      <c r="C443" s="6"/>
+      <c r="D443" s="6"/>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="7"/>
+      <c r="B444" s="8"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="6"/>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="7"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="6"/>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="7"/>
+      <c r="B446" s="8"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="6"/>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="6"/>
+      <c r="B447" s="6"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="6"/>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="7"/>
+      <c r="B448" s="6"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="6"/>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="7"/>
+      <c r="B449" s="8"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="6"/>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="7"/>
+      <c r="B450" s="8"/>
+      <c r="C450" s="6"/>
+      <c r="D450" s="6"/>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="7"/>
+      <c r="B451" s="8"/>
+      <c r="C451" s="6"/>
+      <c r="D451" s="6"/>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="7"/>
+      <c r="B452" s="8"/>
+      <c r="C452" s="6"/>
+      <c r="D452" s="6"/>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="7"/>
+      <c r="B453" s="8"/>
+      <c r="C453" s="6"/>
+      <c r="D453" s="6"/>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="7"/>
+      <c r="B454" s="8"/>
+      <c r="C454" s="6"/>
+      <c r="D454" s="6"/>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="7"/>
+      <c r="B455" s="8"/>
+      <c r="C455" s="6"/>
+      <c r="D455" s="6"/>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="7"/>
+      <c r="B456" s="8"/>
+      <c r="C456" s="6"/>
+      <c r="D456" s="6"/>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="7"/>
+      <c r="B457" s="8"/>
+      <c r="C457" s="6"/>
+      <c r="D457" s="6"/>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="7"/>
+      <c r="B458" s="8"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="6"/>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="7"/>
+      <c r="B459" s="8"/>
+      <c r="C459" s="6"/>
+      <c r="D459" s="6"/>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="7"/>
+      <c r="B460" s="8"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="6"/>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="7"/>
+      <c r="B461" s="8"/>
+      <c r="C461" s="6"/>
+      <c r="D461" s="6"/>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="7"/>
+      <c r="B462" s="8"/>
+      <c r="C462" s="6"/>
+      <c r="D462" s="6"/>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="7"/>
+      <c r="B463" s="8"/>
+      <c r="C463" s="6"/>
+      <c r="D463" s="6"/>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="7"/>
+      <c r="B464" s="8"/>
+      <c r="C464" s="6"/>
+      <c r="D464" s="6"/>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="7"/>
+      <c r="B465" s="8"/>
+      <c r="C465" s="6"/>
+      <c r="D465" s="6"/>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="7"/>
+      <c r="B466" s="8"/>
+      <c r="C466" s="6"/>
+      <c r="D466" s="6"/>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="7"/>
+      <c r="B467" s="8"/>
+      <c r="C467" s="6"/>
+      <c r="D467" s="6"/>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="6"/>
+      <c r="B468" s="6"/>
+      <c r="C468" s="6"/>
+      <c r="D468" s="6"/>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="7"/>
+      <c r="B469" s="6"/>
+      <c r="C469" s="6"/>
+      <c r="D469" s="6"/>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="7"/>
+      <c r="B470" s="8"/>
+      <c r="C470" s="6"/>
+      <c r="D470" s="6"/>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="7"/>
+      <c r="B471" s="8"/>
+      <c r="C471" s="6"/>
+      <c r="D471" s="6"/>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="7"/>
+      <c r="B472" s="8"/>
+      <c r="C472" s="6"/>
+      <c r="D472" s="6"/>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="7"/>
+      <c r="B473" s="8"/>
+      <c r="C473" s="6"/>
+      <c r="D473" s="6"/>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="7"/>
+      <c r="B474" s="8"/>
+      <c r="C474" s="6"/>
+      <c r="D474" s="6"/>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="7"/>
+      <c r="B475" s="8"/>
+      <c r="C475" s="6"/>
+      <c r="D475" s="6"/>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="7"/>
+      <c r="B476" s="8"/>
+      <c r="C476" s="6"/>
+      <c r="D476" s="6"/>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="7"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="6"/>
+      <c r="D477" s="6"/>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="7"/>
+      <c r="B478" s="8"/>
+      <c r="C478" s="6"/>
+      <c r="D478" s="6"/>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="7"/>
+      <c r="B479" s="8"/>
+      <c r="C479" s="6"/>
+      <c r="D479" s="6"/>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="7"/>
+      <c r="B480" s="8"/>
+      <c r="C480" s="6"/>
+      <c r="D480" s="6"/>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="7"/>
+      <c r="B481" s="8"/>
+      <c r="C481" s="6"/>
+      <c r="D481" s="6"/>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="7"/>
+      <c r="B482" s="8"/>
+      <c r="C482" s="6"/>
+      <c r="D482" s="6"/>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="7"/>
+      <c r="B483" s="8"/>
+      <c r="C483" s="6"/>
+      <c r="D483" s="6"/>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="7"/>
+      <c r="B484" s="8"/>
+      <c r="C484" s="6"/>
+      <c r="D484" s="6"/>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="7"/>
+      <c r="B485" s="8"/>
+      <c r="C485" s="6"/>
+      <c r="D485" s="6"/>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="7"/>
+      <c r="B486" s="8"/>
+      <c r="C486" s="6"/>
+      <c r="D486" s="6"/>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="7"/>
+      <c r="B487" s="8"/>
+      <c r="C487" s="6"/>
+      <c r="D487" s="6"/>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="7"/>
+      <c r="B488" s="8"/>
+      <c r="C488" s="6"/>
+      <c r="D488" s="6"/>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="7"/>
+      <c r="B489" s="8"/>
+      <c r="C489" s="6"/>
+      <c r="D489" s="6"/>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="7"/>
+      <c r="B490" s="8"/>
+      <c r="C490" s="6"/>
+      <c r="D490" s="6"/>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="7"/>
+      <c r="B491" s="8"/>
+      <c r="C491" s="6"/>
+      <c r="D491" s="6"/>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="7"/>
+      <c r="B492" s="8"/>
+      <c r="C492" s="6"/>
+      <c r="D492" s="6"/>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="7"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="6"/>
+      <c r="D493" s="6"/>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="7"/>
+      <c r="B494" s="8"/>
+      <c r="C494" s="6"/>
+      <c r="D494" s="6"/>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="7"/>
+      <c r="B495" s="8"/>
+      <c r="C495" s="6"/>
+      <c r="D495" s="6"/>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="7"/>
+      <c r="B496" s="8"/>
+      <c r="C496" s="6"/>
+      <c r="D496" s="6"/>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="7"/>
+      <c r="B497" s="8"/>
+      <c r="C497" s="6"/>
+      <c r="D497" s="6"/>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="7"/>
+      <c r="B498" s="8"/>
+      <c r="C498" s="6"/>
+      <c r="D498" s="6"/>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="6"/>
+      <c r="B499" s="6"/>
+      <c r="C499" s="6"/>
+      <c r="D499" s="6"/>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="7"/>
+      <c r="B500" s="6"/>
+      <c r="C500" s="6"/>
+      <c r="D500" s="6"/>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="7"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="6"/>
+      <c r="D501" s="6"/>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="7"/>
+      <c r="B502" s="8"/>
+      <c r="C502" s="6"/>
+      <c r="D502" s="6"/>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="7"/>
+      <c r="B503" s="8"/>
+      <c r="C503" s="6"/>
+      <c r="D503" s="6"/>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="7"/>
+      <c r="B504" s="8"/>
+      <c r="C504" s="6"/>
+      <c r="D504" s="6"/>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="7"/>
+      <c r="B505" s="8"/>
+      <c r="C505" s="6"/>
+      <c r="D505" s="6"/>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="7"/>
+      <c r="B506" s="8"/>
+      <c r="C506" s="6"/>
+      <c r="D506" s="6"/>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="7"/>
+      <c r="B507" s="8"/>
+      <c r="C507" s="6"/>
+      <c r="D507" s="6"/>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="7"/>
+      <c r="B508" s="8"/>
+      <c r="C508" s="6"/>
+      <c r="D508" s="6"/>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="7"/>
+      <c r="B509" s="8"/>
+      <c r="C509" s="6"/>
+      <c r="D509" s="6"/>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="7"/>
+      <c r="B510" s="8"/>
+      <c r="C510" s="6"/>
+      <c r="D510" s="6"/>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="7"/>
+      <c r="B511" s="8"/>
+      <c r="C511" s="6"/>
+      <c r="D511" s="6"/>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="7"/>
+      <c r="B512" s="8"/>
+      <c r="C512" s="6"/>
+      <c r="D512" s="6"/>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="7"/>
+      <c r="B513" s="8"/>
+      <c r="C513" s="6"/>
+      <c r="D513" s="6"/>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="7"/>
+      <c r="B514" s="8"/>
+      <c r="C514" s="6"/>
+      <c r="D514" s="6"/>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="7"/>
+      <c r="B515" s="8"/>
+      <c r="C515" s="6"/>
+      <c r="D515" s="6"/>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="7"/>
+      <c r="B516" s="8"/>
+      <c r="C516" s="6"/>
+      <c r="D516" s="6"/>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="7"/>
+      <c r="B517" s="8"/>
+      <c r="C517" s="6"/>
+      <c r="D517" s="6"/>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="7"/>
+      <c r="B518" s="8"/>
+      <c r="C518" s="6"/>
+      <c r="D518" s="6"/>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="7"/>
+      <c r="B519" s="8"/>
+      <c r="C519" s="6"/>
+      <c r="D519" s="6"/>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="7"/>
+      <c r="B520" s="8"/>
+      <c r="C520" s="6"/>
+      <c r="D520" s="6"/>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="7"/>
+      <c r="B521" s="8"/>
+      <c r="C521" s="6"/>
+      <c r="D521" s="6"/>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="7"/>
+      <c r="B522" s="8"/>
+      <c r="C522" s="6"/>
+      <c r="D522" s="6"/>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="7"/>
+      <c r="B523" s="8"/>
+      <c r="C523" s="6"/>
+      <c r="D523" s="6"/>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="7"/>
+      <c r="B524" s="8"/>
+      <c r="C524" s="6"/>
+      <c r="D524" s="6"/>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="7"/>
+      <c r="B525" s="8"/>
+      <c r="C525" s="6"/>
+      <c r="D525" s="6"/>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="7"/>
+      <c r="B526" s="8"/>
+      <c r="C526" s="6"/>
+      <c r="D526" s="6"/>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="7"/>
+      <c r="B527" s="8"/>
+      <c r="C527" s="6"/>
+      <c r="D527" s="6"/>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="7"/>
+      <c r="B528" s="8"/>
+      <c r="C528" s="6"/>
+      <c r="D528" s="6"/>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="7"/>
+      <c r="B529" s="8"/>
+      <c r="C529" s="6"/>
+      <c r="D529" s="6"/>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="7"/>
+      <c r="B530" s="8"/>
+      <c r="C530" s="6"/>
+      <c r="D530" s="6"/>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="7"/>
+      <c r="B531" s="8"/>
+      <c r="C531" s="6"/>
+      <c r="D531" s="6"/>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="7"/>
+      <c r="B532" s="8"/>
+      <c r="C532" s="6"/>
+      <c r="D532" s="6"/>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="7"/>
+      <c r="B533" s="8"/>
+      <c r="C533" s="6"/>
+      <c r="D533" s="6"/>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="7"/>
+      <c r="B534" s="8"/>
+      <c r="C534" s="6"/>
+      <c r="D534" s="6"/>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="6"/>
+      <c r="B535" s="6"/>
+      <c r="C535" s="6"/>
+      <c r="D535" s="6"/>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="7"/>
+      <c r="B536" s="6"/>
+      <c r="C536" s="6"/>
+      <c r="D536" s="6"/>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="7"/>
+      <c r="B537" s="8"/>
+      <c r="C537" s="6"/>
+      <c r="D537" s="6"/>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="7"/>
+      <c r="B538" s="8"/>
+      <c r="C538" s="6"/>
+      <c r="D538" s="6"/>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="7"/>
+      <c r="B539" s="8"/>
+      <c r="C539" s="6"/>
+      <c r="D539" s="6"/>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="7"/>
+      <c r="B540" s="8"/>
+      <c r="C540" s="6"/>
+      <c r="D540" s="6"/>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="7"/>
+      <c r="B541" s="8"/>
+      <c r="C541" s="6"/>
+      <c r="D541" s="6"/>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="7"/>
+      <c r="B542" s="8"/>
+      <c r="C542" s="6"/>
+      <c r="D542" s="6"/>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="7"/>
+      <c r="B543" s="8"/>
+      <c r="C543" s="6"/>
+      <c r="D543" s="6"/>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="7"/>
+      <c r="B544" s="8"/>
+      <c r="C544" s="6"/>
+      <c r="D544" s="6"/>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="7"/>
+      <c r="B545" s="8"/>
+      <c r="C545" s="6"/>
+      <c r="D545" s="6"/>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="7"/>
+      <c r="B546" s="8"/>
+      <c r="C546" s="6"/>
+      <c r="D546" s="6"/>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="7"/>
+      <c r="B547" s="8"/>
+      <c r="C547" s="6"/>
+      <c r="D547" s="6"/>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="7"/>
+      <c r="B548" s="8"/>
+      <c r="C548" s="6"/>
+      <c r="D548" s="6"/>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="7"/>
+      <c r="B549" s="8"/>
+      <c r="C549" s="6"/>
+      <c r="D549" s="6"/>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="7"/>
+      <c r="B550" s="8"/>
+      <c r="C550" s="6"/>
+      <c r="D550" s="6"/>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="7"/>
+      <c r="B551" s="8"/>
+      <c r="C551" s="6"/>
+      <c r="D551" s="6"/>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="7"/>
+      <c r="B552" s="8"/>
+      <c r="C552" s="6"/>
+      <c r="D552" s="6"/>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="7"/>
+      <c r="B553" s="8"/>
+      <c r="C553" s="6"/>
+      <c r="D553" s="6"/>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="7"/>
+      <c r="B554" s="8"/>
+      <c r="C554" s="6"/>
+      <c r="D554" s="6"/>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="7"/>
+      <c r="B555" s="8"/>
+      <c r="C555" s="6"/>
+      <c r="D555" s="6"/>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="7"/>
+      <c r="B556" s="8"/>
+      <c r="C556" s="6"/>
+      <c r="D556" s="6"/>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="7"/>
+      <c r="B557" s="8"/>
+      <c r="C557" s="6"/>
+      <c r="D557" s="6"/>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="7"/>
+      <c r="B558" s="8"/>
+      <c r="C558" s="6"/>
+      <c r="D558" s="6"/>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="7"/>
+      <c r="B559" s="8"/>
+      <c r="C559" s="6"/>
+      <c r="D559" s="6"/>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="7"/>
+      <c r="B560" s="8"/>
+      <c r="C560" s="6"/>
+      <c r="D560" s="6"/>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="7"/>
+      <c r="B561" s="8"/>
+      <c r="C561" s="6"/>
+      <c r="D561" s="6"/>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="7"/>
+      <c r="B562" s="8"/>
+      <c r="C562" s="6"/>
+      <c r="D562" s="6"/>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="7"/>
+      <c r="B563" s="8"/>
+      <c r="C563" s="6"/>
+      <c r="D563" s="6"/>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="7"/>
+      <c r="B564" s="8"/>
+      <c r="C564" s="6"/>
+      <c r="D564" s="6"/>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="7"/>
+      <c r="B565" s="8"/>
+      <c r="C565" s="6"/>
+      <c r="D565" s="6"/>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="7"/>
+      <c r="B566" s="8"/>
+      <c r="C566" s="6"/>
+      <c r="D566" s="6"/>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="7"/>
+      <c r="B567" s="8"/>
+      <c r="C567" s="6"/>
+      <c r="D567" s="6"/>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="7"/>
+      <c r="B568" s="8"/>
+      <c r="C568" s="6"/>
+      <c r="D568" s="6"/>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="7"/>
+      <c r="B569" s="8"/>
+      <c r="C569" s="6"/>
+      <c r="D569" s="6"/>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="7"/>
+      <c r="B570" s="8"/>
+      <c r="C570" s="6"/>
+      <c r="D570" s="6"/>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="7"/>
+      <c r="B571" s="8"/>
+      <c r="C571" s="6"/>
+      <c r="D571" s="6"/>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="7"/>
+      <c r="B572" s="8"/>
+      <c r="C572" s="6"/>
+      <c r="D572" s="6"/>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="7"/>
+      <c r="B573" s="8"/>
+      <c r="C573" s="6"/>
+      <c r="D573" s="6"/>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="7"/>
+      <c r="B574" s="8"/>
+      <c r="C574" s="6"/>
+      <c r="D574" s="6"/>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="7"/>
+      <c r="B575" s="8"/>
+      <c r="C575" s="6"/>
+      <c r="D575" s="6"/>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="7"/>
+      <c r="B576" s="8"/>
+      <c r="C576" s="6"/>
+      <c r="D576" s="6"/>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="7"/>
+      <c r="B577" s="8"/>
+      <c r="C577" s="6"/>
+      <c r="D577" s="6"/>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="6"/>
+      <c r="B578" s="6"/>
+      <c r="C578" s="6"/>
+      <c r="D578" s="6"/>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="7"/>
+      <c r="B579" s="6"/>
+      <c r="C579" s="6"/>
+      <c r="D579" s="6"/>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="7"/>
+      <c r="B580" s="8"/>
+      <c r="C580" s="6"/>
+      <c r="D580" s="6"/>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="7"/>
+      <c r="B581" s="8"/>
+      <c r="C581" s="6"/>
+      <c r="D581" s="6"/>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="7"/>
+      <c r="B582" s="8"/>
+      <c r="C582" s="6"/>
+      <c r="D582" s="6"/>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="7"/>
+      <c r="B583" s="8"/>
+      <c r="C583" s="6"/>
+      <c r="D583" s="6"/>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="7"/>
+      <c r="B584" s="8"/>
+      <c r="C584" s="6"/>
+      <c r="D584" s="6"/>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="7"/>
+      <c r="B585" s="8"/>
+      <c r="C585" s="6"/>
+      <c r="D585" s="6"/>
+    </row>
+    <row r="586" spans="1:4">
+      <c r="A586" s="7"/>
+      <c r="B586" s="8"/>
+      <c r="C586" s="6"/>
+      <c r="D586" s="6"/>
+    </row>
+    <row r="587" spans="1:4">
+      <c r="A587" s="7"/>
+      <c r="B587" s="8"/>
+      <c r="C587" s="6"/>
+      <c r="D587" s="6"/>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="7"/>
+      <c r="B588" s="8"/>
+      <c r="C588" s="6"/>
+      <c r="D588" s="6"/>
+    </row>
+    <row r="589" spans="1:4">
+      <c r="A589" s="7"/>
+      <c r="B589" s="8"/>
+      <c r="C589" s="6"/>
+      <c r="D589" s="6"/>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="7"/>
+      <c r="B590" s="8"/>
+      <c r="C590" s="6"/>
+      <c r="D590" s="6"/>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="7"/>
+      <c r="B591" s="8"/>
+      <c r="C591" s="6"/>
+      <c r="D591" s="6"/>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="A592" s="7"/>
+      <c r="B592" s="8"/>
+      <c r="C592" s="6"/>
+      <c r="D592" s="6"/>
+    </row>
+    <row r="593" spans="1:4">
+      <c r="A593" s="7"/>
+      <c r="B593" s="8"/>
+      <c r="C593" s="6"/>
+      <c r="D593" s="6"/>
+    </row>
+    <row r="594" spans="1:4">
+      <c r="A594" s="7"/>
+      <c r="B594" s="8"/>
+      <c r="C594" s="6"/>
+      <c r="D594" s="6"/>
+    </row>
+    <row r="595" spans="1:4">
+      <c r="A595" s="7"/>
+      <c r="B595" s="8"/>
+      <c r="C595" s="6"/>
+      <c r="D595" s="6"/>
+    </row>
+    <row r="596" spans="1:4">
+      <c r="A596" s="7"/>
+      <c r="B596" s="8"/>
+      <c r="C596" s="6"/>
+      <c r="D596" s="6"/>
+    </row>
+    <row r="597" spans="1:4">
+      <c r="A597" s="7"/>
+      <c r="B597" s="8"/>
+      <c r="C597" s="6"/>
+      <c r="D597" s="6"/>
+    </row>
+    <row r="598" spans="1:4">
+      <c r="A598" s="7"/>
+      <c r="B598" s="8"/>
+      <c r="C598" s="6"/>
+      <c r="D598" s="6"/>
+    </row>
+    <row r="599" spans="1:4">
+      <c r="A599" s="7"/>
+      <c r="B599" s="8"/>
+      <c r="C599" s="6"/>
+      <c r="D599" s="6"/>
+    </row>
+    <row r="600" spans="1:4">
+      <c r="A600" s="7"/>
+      <c r="B600" s="8"/>
+      <c r="C600" s="6"/>
+      <c r="D600" s="6"/>
+    </row>
+    <row r="601" spans="1:4">
+      <c r="A601" s="7"/>
+      <c r="B601" s="8"/>
+      <c r="C601" s="6"/>
+      <c r="D601" s="6"/>
+    </row>
+    <row r="602" spans="1:4">
+      <c r="A602" s="7"/>
+      <c r="B602" s="8"/>
+      <c r="C602" s="6"/>
+      <c r="D602" s="6"/>
+    </row>
+    <row r="603" spans="1:4">
+      <c r="A603" s="7"/>
+      <c r="B603" s="8"/>
+      <c r="C603" s="6"/>
+      <c r="D603" s="6"/>
+    </row>
+    <row r="604" spans="1:4">
+      <c r="A604" s="7"/>
+      <c r="B604" s="8"/>
+      <c r="C604" s="6"/>
+      <c r="D604" s="6"/>
+    </row>
+    <row r="605" spans="1:4">
+      <c r="A605" s="7"/>
+      <c r="B605" s="8"/>
+      <c r="C605" s="6"/>
+      <c r="D605" s="6"/>
+    </row>
+    <row r="606" spans="1:4">
+      <c r="A606" s="7"/>
+      <c r="B606" s="8"/>
+      <c r="C606" s="6"/>
+      <c r="D606" s="6"/>
+    </row>
+    <row r="607" spans="1:4">
+      <c r="A607" s="7"/>
+      <c r="B607" s="8"/>
+      <c r="C607" s="6"/>
+      <c r="D607" s="6"/>
+    </row>
+    <row r="608" spans="1:4">
+      <c r="A608" s="7"/>
+      <c r="B608" s="8"/>
+      <c r="C608" s="6"/>
+      <c r="D608" s="6"/>
+    </row>
+    <row r="609" spans="1:4">
+      <c r="A609" s="7"/>
+      <c r="B609" s="8"/>
+      <c r="C609" s="6"/>
+      <c r="D609" s="6"/>
+    </row>
+    <row r="610" spans="1:4">
+      <c r="A610" s="7"/>
+      <c r="B610" s="8"/>
+      <c r="C610" s="6"/>
+      <c r="D610" s="6"/>
+    </row>
+    <row r="611" spans="1:4">
+      <c r="A611" s="7"/>
+      <c r="B611" s="8"/>
+      <c r="C611" s="6"/>
+      <c r="D611" s="6"/>
+    </row>
+    <row r="612" spans="1:4">
+      <c r="A612" s="7"/>
+      <c r="B612" s="8"/>
+      <c r="C612" s="6"/>
+      <c r="D612" s="6"/>
+    </row>
+    <row r="613" spans="1:4">
+      <c r="A613" s="7"/>
+      <c r="B613" s="8"/>
+      <c r="C613" s="6"/>
+      <c r="D613" s="6"/>
+    </row>
+    <row r="614" spans="1:4">
+      <c r="A614" s="7"/>
+      <c r="B614" s="8"/>
+      <c r="C614" s="6"/>
+      <c r="D614" s="6"/>
+    </row>
+    <row r="615" spans="1:4">
+      <c r="A615" s="7"/>
+      <c r="B615" s="8"/>
+      <c r="C615" s="6"/>
+      <c r="D615" s="6"/>
+    </row>
+    <row r="616" spans="1:4">
+      <c r="A616" s="7"/>
+      <c r="B616" s="8"/>
+      <c r="C616" s="6"/>
+      <c r="D616" s="6"/>
+    </row>
+    <row r="617" spans="1:4">
+      <c r="A617" s="7"/>
+      <c r="B617" s="8"/>
+      <c r="C617" s="6"/>
+      <c r="D617" s="6"/>
+    </row>
+    <row r="618" spans="1:4">
+      <c r="A618" s="7"/>
+      <c r="B618" s="8"/>
+      <c r="C618" s="6"/>
+      <c r="D618" s="6"/>
+    </row>
+    <row r="619" spans="1:4">
+      <c r="A619" s="7"/>
+      <c r="B619" s="8"/>
+      <c r="C619" s="6"/>
+      <c r="D619" s="6"/>
+    </row>
+    <row r="620" spans="1:4">
+      <c r="A620" s="7"/>
+      <c r="B620" s="8"/>
+      <c r="C620" s="6"/>
+      <c r="D620" s="6"/>
+    </row>
+    <row r="621" spans="1:4">
+      <c r="A621" s="7"/>
+      <c r="B621" s="8"/>
+      <c r="C621" s="6"/>
+      <c r="D621" s="6"/>
+    </row>
+    <row r="622" spans="1:4">
+      <c r="A622" s="7"/>
+      <c r="B622" s="8"/>
+      <c r="C622" s="6"/>
+      <c r="D622" s="6"/>
+    </row>
+    <row r="623" spans="1:4">
+      <c r="A623" s="7"/>
+      <c r="B623" s="8"/>
+      <c r="C623" s="6"/>
+      <c r="D623" s="6"/>
+    </row>
+    <row r="624" spans="1:4">
+      <c r="A624" s="7"/>
+      <c r="B624" s="8"/>
+      <c r="C624" s="6"/>
+      <c r="D624" s="6"/>
+    </row>
+    <row r="625" spans="1:4">
+      <c r="A625" s="7"/>
+      <c r="B625" s="8"/>
+      <c r="C625" s="6"/>
+      <c r="D625" s="6"/>
+    </row>
+    <row r="626" spans="1:4">
+      <c r="A626" s="7"/>
+      <c r="B626" s="8"/>
+      <c r="C626" s="6"/>
+      <c r="D626" s="6"/>
+    </row>
+    <row r="627" spans="1:4">
+      <c r="A627" s="7"/>
+      <c r="B627" s="8"/>
+      <c r="C627" s="6"/>
+      <c r="D627" s="6"/>
+    </row>
+    <row r="628" spans="1:4">
+      <c r="A628" s="7"/>
+      <c r="B628" s="8"/>
+      <c r="C628" s="6"/>
+      <c r="D628" s="6"/>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="7"/>
+      <c r="B629" s="8"/>
+      <c r="C629" s="6"/>
+      <c r="D629" s="6"/>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="7"/>
+      <c r="B630" s="8"/>
+      <c r="C630" s="6"/>
+      <c r="D630" s="6"/>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="6"/>
+      <c r="B631" s="6"/>
+      <c r="C631" s="6"/>
+      <c r="D631" s="6"/>
+    </row>
+    <row r="632" spans="1:4">
+      <c r="A632" s="7"/>
+      <c r="B632" s="6"/>
+      <c r="C632" s="6"/>
+      <c r="D632" s="6"/>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="7"/>
+      <c r="B633" s="8"/>
+      <c r="C633" s="6"/>
+      <c r="D633" s="6"/>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="7"/>
+      <c r="B634" s="8"/>
+      <c r="C634" s="6"/>
+      <c r="D634" s="6"/>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="7"/>
+      <c r="B635" s="8"/>
+      <c r="C635" s="6"/>
+      <c r="D635" s="6"/>
+    </row>
+    <row r="636" spans="1:4">
+      <c r="A636" s="7"/>
+      <c r="B636" s="8"/>
+      <c r="C636" s="6"/>
+      <c r="D636" s="6"/>
+    </row>
+    <row r="637" spans="1:4">
+      <c r="A637" s="7"/>
+      <c r="B637" s="8"/>
+      <c r="C637" s="6"/>
+      <c r="D637" s="6"/>
+    </row>
+    <row r="638" spans="1:4">
+      <c r="A638" s="7"/>
+      <c r="B638" s="8"/>
+      <c r="C638" s="6"/>
+      <c r="D638" s="6"/>
+    </row>
+    <row r="639" spans="1:4">
+      <c r="A639" s="7"/>
+      <c r="B639" s="8"/>
+      <c r="C639" s="6"/>
+      <c r="D639" s="6"/>
+    </row>
+    <row r="640" spans="1:4">
+      <c r="A640" s="7"/>
+      <c r="B640" s="8"/>
+      <c r="C640" s="6"/>
+      <c r="D640" s="6"/>
+    </row>
+    <row r="641" spans="1:4">
+      <c r="A641" s="7"/>
+      <c r="B641" s="8"/>
+      <c r="C641" s="6"/>
+      <c r="D641" s="6"/>
+    </row>
+    <row r="642" spans="1:4">
+      <c r="A642" s="7"/>
+      <c r="B642" s="8"/>
+      <c r="C642" s="6"/>
+      <c r="D642" s="6"/>
+    </row>
+    <row r="643" spans="1:4">
+      <c r="A643" s="7"/>
+      <c r="B643" s="8"/>
+      <c r="C643" s="6"/>
+      <c r="D643" s="6"/>
+    </row>
+    <row r="644" spans="1:4">
+      <c r="A644" s="7"/>
+      <c r="B644" s="8"/>
+      <c r="C644" s="6"/>
+      <c r="D644" s="6"/>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="A645" s="7"/>
+      <c r="B645" s="8"/>
+      <c r="C645" s="6"/>
+      <c r="D645" s="6"/>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="A646" s="7"/>
+      <c r="B646" s="8"/>
+      <c r="C646" s="6"/>
+      <c r="D646" s="6"/>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="A647" s="7"/>
+      <c r="B647" s="8"/>
+      <c r="C647" s="6"/>
+      <c r="D647" s="6"/>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" s="7"/>
+      <c r="B648" s="8"/>
+      <c r="C648" s="6"/>
+      <c r="D648" s="6"/>
+    </row>
+    <row r="649" spans="1:4">
+      <c r="A649" s="7"/>
+      <c r="B649" s="8"/>
+      <c r="C649" s="6"/>
+      <c r="D649" s="6"/>
+    </row>
+    <row r="650" spans="1:4">
+      <c r="A650" s="6"/>
+      <c r="B650" s="6"/>
+      <c r="C650" s="6"/>
+      <c r="D650" s="6"/>
+    </row>
+    <row r="651" spans="1:4">
+      <c r="A651" s="7"/>
+      <c r="B651" s="6"/>
+      <c r="C651" s="6"/>
+      <c r="D651" s="6"/>
+    </row>
+    <row r="652" spans="1:4">
+      <c r="A652" s="7"/>
+      <c r="B652" s="8"/>
+      <c r="C652" s="6"/>
+      <c r="D652" s="6"/>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="7"/>
+      <c r="B653" s="8"/>
+      <c r="C653" s="6"/>
+      <c r="D653" s="6"/>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="7"/>
+      <c r="B654" s="8"/>
+      <c r="C654" s="6"/>
+      <c r="D654" s="6"/>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="7"/>
+      <c r="B655" s="8"/>
+      <c r="C655" s="6"/>
+      <c r="D655" s="6"/>
+    </row>
+    <row r="656" spans="1:4">
+      <c r="A656" s="7"/>
+      <c r="B656" s="8"/>
+      <c r="C656" s="6"/>
+      <c r="D656" s="6"/>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="7"/>
+      <c r="B657" s="8"/>
+      <c r="C657" s="6"/>
+      <c r="D657" s="6"/>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="7"/>
+      <c r="B658" s="8"/>
+      <c r="C658" s="6"/>
+      <c r="D658" s="6"/>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="7"/>
+      <c r="B659" s="8"/>
+      <c r="C659" s="6"/>
+      <c r="D659" s="6"/>
+    </row>
+    <row r="660" spans="1:4">
+      <c r="A660" s="7"/>
+      <c r="B660" s="8"/>
+      <c r="C660" s="6"/>
+      <c r="D660" s="6"/>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="A661" s="7"/>
+      <c r="B661" s="8"/>
+      <c r="C661" s="6"/>
+      <c r="D661" s="6"/>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="A662" s="7"/>
+      <c r="B662" s="8"/>
+      <c r="C662" s="6"/>
+      <c r="D662" s="6"/>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="A663" s="7"/>
+      <c r="B663" s="8"/>
+      <c r="C663" s="6"/>
+      <c r="D663" s="6"/>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="A664" s="7"/>
+      <c r="B664" s="8"/>
+      <c r="C664" s="6"/>
+      <c r="D664" s="6"/>
+    </row>
+    <row r="665" spans="1:4">
+      <c r="A665" s="7"/>
+      <c r="B665" s="8"/>
+      <c r="C665" s="6"/>
+      <c r="D665" s="6"/>
+    </row>
+    <row r="666" spans="1:4">
+      <c r="A666" s="7"/>
+      <c r="B666" s="8"/>
+      <c r="C666" s="6"/>
+      <c r="D666" s="6"/>
+    </row>
+    <row r="667" spans="1:4">
+      <c r="A667" s="7"/>
+      <c r="B667" s="8"/>
+      <c r="C667" s="6"/>
+      <c r="D667" s="6"/>
+    </row>
+    <row r="668" spans="1:4">
+      <c r="A668" s="7"/>
+      <c r="B668" s="8"/>
+      <c r="C668" s="6"/>
+      <c r="D668" s="6"/>
+    </row>
+    <row r="669" spans="1:4">
+      <c r="A669" s="7"/>
+      <c r="B669" s="8"/>
+      <c r="C669" s="6"/>
+      <c r="D669" s="6"/>
+    </row>
+    <row r="670" spans="1:4">
+      <c r="A670" s="7"/>
+      <c r="B670" s="8"/>
+      <c r="C670" s="6"/>
+      <c r="D670" s="6"/>
+    </row>
+    <row r="671" spans="1:4">
+      <c r="A671" s="6"/>
+      <c r="B671" s="6"/>
+      <c r="C671" s="6"/>
+      <c r="D671" s="6"/>
+    </row>
+    <row r="672" spans="1:4">
+      <c r="A672" s="7"/>
+      <c r="B672" s="6"/>
+      <c r="C672" s="6"/>
+      <c r="D672" s="6"/>
+    </row>
+    <row r="673" spans="1:4">
+      <c r="A673" s="7"/>
+      <c r="B673" s="8"/>
+      <c r="C673" s="6"/>
+      <c r="D673" s="6"/>
+    </row>
+    <row r="674" spans="1:4">
+      <c r="A674" s="7"/>
+      <c r="B674" s="8"/>
+      <c r="C674" s="6"/>
+      <c r="D674" s="6"/>
+    </row>
+    <row r="675" spans="1:4">
+      <c r="A675" s="7"/>
+      <c r="B675" s="8"/>
+      <c r="C675" s="6"/>
+      <c r="D675" s="6"/>
+    </row>
+    <row r="676" spans="1:4">
+      <c r="A676" s="7"/>
+      <c r="B676" s="8"/>
+      <c r="C676" s="6"/>
+      <c r="D676" s="6"/>
+    </row>
+    <row r="677" spans="1:4">
+      <c r="A677" s="7"/>
+      <c r="B677" s="8"/>
+      <c r="C677" s="6"/>
+      <c r="D677" s="6"/>
+    </row>
+    <row r="678" spans="1:4">
+      <c r="A678" s="7"/>
+      <c r="B678" s="8"/>
+      <c r="C678" s="6"/>
+      <c r="D678" s="6"/>
+    </row>
+    <row r="679" spans="1:4">
+      <c r="A679" s="7"/>
+      <c r="B679" s="8"/>
+      <c r="C679" s="6"/>
+      <c r="D679" s="6"/>
+    </row>
+    <row r="680" spans="1:4">
+      <c r="A680" s="7"/>
+      <c r="B680" s="8"/>
+      <c r="C680" s="6"/>
+      <c r="D680" s="6"/>
+    </row>
+    <row r="681" spans="1:4">
+      <c r="A681" s="7"/>
+      <c r="B681" s="8"/>
+      <c r="C681" s="6"/>
+      <c r="D681" s="6"/>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="A682" s="7"/>
+      <c r="B682" s="8"/>
+      <c r="C682" s="6"/>
+      <c r="D682" s="6"/>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="A683" s="7"/>
+      <c r="B683" s="8"/>
+      <c r="C683" s="6"/>
+      <c r="D683" s="6"/>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="A684" s="7"/>
+      <c r="B684" s="8"/>
+      <c r="C684" s="6"/>
+      <c r="D684" s="6"/>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="A685" s="7"/>
+      <c r="B685" s="8"/>
+      <c r="C685" s="6"/>
+      <c r="D685" s="6"/>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="A686" s="7"/>
+      <c r="B686" s="8"/>
+      <c r="C686" s="6"/>
+      <c r="D686" s="6"/>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="A687" s="7"/>
+      <c r="B687" s="8"/>
+      <c r="C687" s="6"/>
+      <c r="D687" s="6"/>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="A688" s="7"/>
+      <c r="B688" s="8"/>
+      <c r="C688" s="6"/>
+      <c r="D688" s="6"/>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="A689" s="7"/>
+      <c r="B689" s="8"/>
+      <c r="C689" s="6"/>
+      <c r="D689" s="6"/>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="A690" s="7"/>
+      <c r="B690" s="8"/>
+      <c r="C690" s="6"/>
+      <c r="D690" s="6"/>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="A691" s="7"/>
+      <c r="B691" s="8"/>
+      <c r="C691" s="6"/>
+      <c r="D691" s="6"/>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="7"/>
+      <c r="B692" s="8"/>
+      <c r="C692" s="6"/>
+      <c r="D692" s="6"/>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="7"/>
+      <c r="B693" s="8"/>
+      <c r="C693" s="6"/>
+      <c r="D693" s="6"/>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="7"/>
+      <c r="B694" s="8"/>
+      <c r="C694" s="6"/>
+      <c r="D694" s="6"/>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="7"/>
+      <c r="B695" s="8"/>
+      <c r="C695" s="6"/>
+      <c r="D695" s="6"/>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="7"/>
+      <c r="B696" s="8"/>
+      <c r="C696" s="6"/>
+      <c r="D696" s="6"/>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="7"/>
+      <c r="B697" s="8"/>
+      <c r="C697" s="6"/>
+      <c r="D697" s="6"/>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="7"/>
+      <c r="B698" s="8"/>
+      <c r="C698" s="6"/>
+      <c r="D698" s="6"/>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="7"/>
+      <c r="B699" s="8"/>
+      <c r="C699" s="6"/>
+      <c r="D699" s="6"/>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="7"/>
+      <c r="B700" s="8"/>
+      <c r="C700" s="6"/>
+      <c r="D700" s="6"/>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="A701" s="7"/>
+      <c r="B701" s="8"/>
+      <c r="C701" s="6"/>
+      <c r="D701" s="6"/>
+    </row>
+    <row r="702" spans="1:4">
+      <c r="A702" s="6"/>
+      <c r="B702" s="6"/>
+      <c r="C702" s="6"/>
+      <c r="D702" s="6"/>
+    </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="7"/>
+      <c r="B703" s="6"/>
+      <c r="C703" s="6"/>
+      <c r="D703" s="6"/>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="7"/>
+      <c r="B704" s="8"/>
+      <c r="C704" s="6"/>
+      <c r="D704" s="6"/>
+    </row>
+    <row r="705" spans="1:4">
+      <c r="A705" s="7"/>
+      <c r="B705" s="8"/>
+      <c r="C705" s="6"/>
+      <c r="D705" s="6"/>
+    </row>
+    <row r="706" spans="1:4">
+      <c r="A706" s="7"/>
+      <c r="B706" s="8"/>
+      <c r="C706" s="6"/>
+      <c r="D706" s="6"/>
+    </row>
+    <row r="707" spans="1:4">
+      <c r="A707" s="7"/>
+      <c r="B707" s="8"/>
+      <c r="C707" s="6"/>
+      <c r="D707" s="6"/>
+    </row>
+    <row r="708" spans="1:4">
+      <c r="A708" s="7"/>
+      <c r="B708" s="8"/>
+      <c r="C708" s="6"/>
+      <c r="D708" s="6"/>
+    </row>
+    <row r="709" spans="1:4">
+      <c r="A709" s="7"/>
+      <c r="B709" s="8"/>
+      <c r="C709" s="6"/>
+      <c r="D709" s="6"/>
+    </row>
+    <row r="710" spans="1:4">
+      <c r="A710" s="7"/>
+      <c r="B710" s="8"/>
+      <c r="C710" s="6"/>
+      <c r="D710" s="6"/>
+    </row>
+    <row r="711" spans="1:4">
+      <c r="A711" s="7"/>
+      <c r="B711" s="8"/>
+      <c r="C711" s="6"/>
+      <c r="D711" s="6"/>
+    </row>
+    <row r="712" spans="1:4">
+      <c r="A712" s="7"/>
+      <c r="B712" s="8"/>
+      <c r="C712" s="6"/>
+      <c r="D712" s="6"/>
+    </row>
+    <row r="713" spans="1:4">
+      <c r="A713" s="7"/>
+      <c r="B713" s="8"/>
+      <c r="C713" s="6"/>
+      <c r="D713" s="6"/>
+    </row>
+    <row r="714" spans="1:4">
+      <c r="A714" s="7"/>
+      <c r="B714" s="8"/>
+      <c r="C714" s="6"/>
+      <c r="D714" s="6"/>
+    </row>
+    <row r="715" spans="1:4">
+      <c r="A715" s="7"/>
+      <c r="B715" s="8"/>
+      <c r="C715" s="6"/>
+      <c r="D715" s="6"/>
+    </row>
+    <row r="716" spans="1:4">
+      <c r="A716" s="7"/>
+      <c r="B716" s="8"/>
+      <c r="C716" s="6"/>
+      <c r="D716" s="6"/>
+    </row>
+    <row r="717" spans="1:4">
+      <c r="A717" s="7"/>
+      <c r="B717" s="8"/>
+      <c r="C717" s="6"/>
+      <c r="D717" s="6"/>
+    </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="7"/>
+      <c r="B718" s="8"/>
+      <c r="C718" s="6"/>
+      <c r="D718" s="6"/>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="7"/>
+      <c r="B719" s="8"/>
+      <c r="C719" s="6"/>
+      <c r="D719" s="6"/>
+    </row>
+    <row r="720" spans="1:4">
+      <c r="A720" s="7"/>
+      <c r="B720" s="8"/>
+      <c r="C720" s="6"/>
+      <c r="D720" s="6"/>
+    </row>
+    <row r="721" spans="1:4">
+      <c r="A721" s="7"/>
+      <c r="B721" s="8"/>
+      <c r="C721" s="6"/>
+      <c r="D721" s="6"/>
+    </row>
+    <row r="722" spans="1:4">
+      <c r="A722" s="7"/>
+      <c r="B722" s="8"/>
+      <c r="C722" s="6"/>
+      <c r="D722" s="6"/>
+    </row>
+    <row r="723" spans="1:4">
+      <c r="A723" s="7"/>
+      <c r="B723" s="8"/>
+      <c r="C723" s="6"/>
+      <c r="D723" s="6"/>
+    </row>
+    <row r="724" spans="1:4">
+      <c r="A724" s="7"/>
+      <c r="B724" s="8"/>
+      <c r="C724" s="6"/>
+      <c r="D724" s="6"/>
+    </row>
+    <row r="725" spans="1:4">
+      <c r="A725" s="7"/>
+      <c r="B725" s="8"/>
+      <c r="C725" s="6"/>
+      <c r="D725" s="6"/>
+    </row>
+    <row r="726" spans="1:4">
+      <c r="A726" s="7"/>
+      <c r="B726" s="8"/>
+      <c r="C726" s="6"/>
+      <c r="D726" s="6"/>
+    </row>
+    <row r="727" spans="1:4">
+      <c r="A727" s="7"/>
+      <c r="B727" s="8"/>
+      <c r="C727" s="6"/>
+      <c r="D727" s="6"/>
+    </row>
+    <row r="728" spans="1:4">
+      <c r="A728" s="7"/>
+      <c r="B728" s="8"/>
+      <c r="C728" s="6"/>
+      <c r="D728" s="6"/>
+    </row>
+    <row r="729" spans="1:4">
+      <c r="A729" s="7"/>
+      <c r="B729" s="8"/>
+      <c r="C729" s="6"/>
+      <c r="D729" s="6"/>
+    </row>
+    <row r="730" spans="1:4">
+      <c r="A730" s="7"/>
+      <c r="B730" s="8"/>
+      <c r="C730" s="6"/>
+      <c r="D730" s="6"/>
+    </row>
+    <row r="731" spans="1:4">
+      <c r="A731" s="7"/>
+      <c r="B731" s="8"/>
+      <c r="C731" s="6"/>
+      <c r="D731" s="6"/>
+    </row>
+    <row r="732" spans="1:4">
+      <c r="A732" s="7"/>
+      <c r="B732" s="8"/>
+      <c r="C732" s="6"/>
+      <c r="D732" s="6"/>
+    </row>
+    <row r="733" spans="1:4">
+      <c r="A733" s="7"/>
+      <c r="B733" s="8"/>
+      <c r="C733" s="6"/>
+      <c r="D733" s="6"/>
+    </row>
+    <row r="734" spans="1:4">
+      <c r="A734" s="7"/>
+      <c r="B734" s="8"/>
+      <c r="C734" s="6"/>
+      <c r="D734" s="6"/>
+    </row>
+    <row r="735" spans="1:4">
+      <c r="A735" s="7"/>
+      <c r="B735" s="8"/>
+      <c r="C735" s="6"/>
+      <c r="D735" s="6"/>
+    </row>
+    <row r="736" spans="1:4">
+      <c r="A736" s="7"/>
+      <c r="B736" s="8"/>
+      <c r="C736" s="6"/>
+      <c r="D736" s="6"/>
+    </row>
+    <row r="737" spans="1:4">
+      <c r="A737" s="7"/>
+      <c r="B737" s="8"/>
+      <c r="C737" s="6"/>
+      <c r="D737" s="6"/>
+    </row>
+    <row r="738" spans="1:4">
+      <c r="A738" s="6"/>
+      <c r="B738" s="6"/>
+      <c r="C738" s="6"/>
+      <c r="D738" s="6"/>
+    </row>
+    <row r="739" spans="1:4">
+      <c r="A739" s="7"/>
+      <c r="B739" s="6"/>
+      <c r="C739" s="6"/>
+      <c r="D739" s="6"/>
+    </row>
+    <row r="740" spans="1:4">
+      <c r="A740" s="7"/>
+      <c r="B740" s="8"/>
+      <c r="C740" s="6"/>
+      <c r="D740" s="6"/>
+    </row>
+    <row r="741" spans="1:4">
+      <c r="A741" s="7"/>
+      <c r="B741" s="8"/>
+      <c r="C741" s="6"/>
+      <c r="D741" s="6"/>
+    </row>
+    <row r="742" spans="1:4">
+      <c r="A742" s="7"/>
+      <c r="B742" s="8"/>
+      <c r="C742" s="6"/>
+      <c r="D742" s="6"/>
+    </row>
+    <row r="743" spans="1:4">
+      <c r="A743" s="7"/>
+      <c r="B743" s="8"/>
+      <c r="C743" s="6"/>
+      <c r="D743" s="6"/>
+    </row>
+    <row r="744" spans="1:4">
+      <c r="A744" s="7"/>
+      <c r="B744" s="8"/>
+      <c r="C744" s="6"/>
+      <c r="D744" s="6"/>
+    </row>
+    <row r="745" spans="1:4">
+      <c r="A745" s="7"/>
+      <c r="B745" s="8"/>
+      <c r="C745" s="6"/>
+      <c r="D745" s="6"/>
+    </row>
+    <row r="746" spans="1:4">
+      <c r="A746" s="7"/>
+      <c r="B746" s="8"/>
+      <c r="C746" s="6"/>
+      <c r="D746" s="6"/>
+    </row>
+    <row r="747" spans="1:4">
+      <c r="A747" s="7"/>
+      <c r="B747" s="8"/>
+      <c r="C747" s="6"/>
+      <c r="D747" s="6"/>
+    </row>
+    <row r="748" spans="1:4">
+      <c r="A748" s="7"/>
+      <c r="B748" s="8"/>
+      <c r="C748" s="6"/>
+      <c r="D748" s="6"/>
+    </row>
+    <row r="749" spans="1:4">
+      <c r="A749" s="7"/>
+      <c r="B749" s="8"/>
+      <c r="C749" s="6"/>
+      <c r="D749" s="6"/>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="7"/>
+      <c r="B750" s="8"/>
+      <c r="C750" s="6"/>
+      <c r="D750" s="6"/>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="7"/>
+      <c r="B751" s="8"/>
+      <c r="C751" s="6"/>
+      <c r="D751" s="6"/>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="7"/>
+      <c r="B752" s="8"/>
+      <c r="C752" s="6"/>
+      <c r="D752" s="6"/>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="7"/>
+      <c r="B753" s="8"/>
+      <c r="C753" s="6"/>
+      <c r="D753" s="6"/>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="7"/>
+      <c r="B754" s="8"/>
+      <c r="C754" s="6"/>
+      <c r="D754" s="6"/>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="7"/>
+      <c r="B755" s="8"/>
+      <c r="C755" s="6"/>
+      <c r="D755" s="6"/>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="7"/>
+      <c r="B756" s="8"/>
+      <c r="C756" s="6"/>
+      <c r="D756" s="6"/>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="7"/>
+      <c r="B757" s="8"/>
+      <c r="C757" s="6"/>
+      <c r="D757" s="6"/>
+    </row>
+    <row r="758" spans="1:4">
+      <c r="A758" s="7"/>
+      <c r="B758" s="8"/>
+      <c r="C758" s="6"/>
+      <c r="D758" s="6"/>
+    </row>
+    <row r="759" spans="1:4">
+      <c r="A759" s="7"/>
+      <c r="B759" s="8"/>
+      <c r="C759" s="6"/>
+      <c r="D759" s="6"/>
+    </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="7"/>
+      <c r="B760" s="8"/>
+      <c r="C760" s="6"/>
+      <c r="D760" s="6"/>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="7"/>
+      <c r="B761" s="8"/>
+      <c r="C761" s="6"/>
+      <c r="D761" s="6"/>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="7"/>
+      <c r="B762" s="8"/>
+      <c r="C762" s="6"/>
+      <c r="D762" s="6"/>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="7"/>
+      <c r="B763" s="8"/>
+      <c r="C763" s="6"/>
+      <c r="D763" s="6"/>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="7"/>
+      <c r="B764" s="8"/>
+      <c r="C764" s="6"/>
+      <c r="D764" s="6"/>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="7"/>
+      <c r="B765" s="8"/>
+      <c r="C765" s="6"/>
+      <c r="D765" s="6"/>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="7"/>
+      <c r="B766" s="8"/>
+      <c r="C766" s="6"/>
+      <c r="D766" s="6"/>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="7"/>
+      <c r="B767" s="8"/>
+      <c r="C767" s="6"/>
+      <c r="D767" s="6"/>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="7"/>
+      <c r="B768" s="8"/>
+      <c r="C768" s="6"/>
+      <c r="D768" s="6"/>
+    </row>
+    <row r="769" spans="1:4">
+      <c r="A769" s="7"/>
+      <c r="B769" s="8"/>
+      <c r="C769" s="6"/>
+      <c r="D769" s="6"/>
+    </row>
+    <row r="770" spans="1:4">
+      <c r="A770" s="7"/>
+      <c r="B770" s="8"/>
+      <c r="C770" s="6"/>
+      <c r="D770" s="6"/>
+    </row>
+    <row r="771" spans="1:4">
+      <c r="A771" s="7"/>
+      <c r="B771" s="8"/>
+      <c r="C771" s="6"/>
+      <c r="D771" s="6"/>
+    </row>
+    <row r="772" spans="1:4">
+      <c r="A772" s="7"/>
+      <c r="B772" s="8"/>
+      <c r="C772" s="6"/>
+      <c r="D772" s="6"/>
+    </row>
+    <row r="773" spans="1:4">
+      <c r="A773" s="7"/>
+      <c r="B773" s="8"/>
+      <c r="C773" s="6"/>
+      <c r="D773" s="6"/>
+    </row>
+    <row r="774" spans="1:4">
+      <c r="A774" s="7"/>
+      <c r="B774" s="8"/>
+      <c r="C774" s="6"/>
+      <c r="D774" s="6"/>
+    </row>
+    <row r="775" spans="1:4">
+      <c r="A775" s="7"/>
+      <c r="B775" s="8"/>
+      <c r="C775" s="6"/>
+      <c r="D775" s="6"/>
+    </row>
+    <row r="776" spans="1:4">
+      <c r="A776" s="7"/>
+      <c r="B776" s="8"/>
+      <c r="C776" s="6"/>
+      <c r="D776" s="6"/>
+    </row>
+    <row r="777" spans="1:4">
+      <c r="A777" s="7"/>
+      <c r="B777" s="8"/>
+      <c r="C777" s="6"/>
+      <c r="D777" s="6"/>
+    </row>
+    <row r="778" spans="1:4">
+      <c r="A778" s="7"/>
+      <c r="B778" s="8"/>
+      <c r="C778" s="6"/>
+      <c r="D778" s="6"/>
+    </row>
+    <row r="779" spans="1:4">
+      <c r="A779" s="7"/>
+      <c r="B779" s="8"/>
+      <c r="C779" s="6"/>
+      <c r="D779" s="6"/>
+    </row>
+    <row r="780" spans="1:4">
+      <c r="A780" s="7"/>
+      <c r="B780" s="8"/>
+      <c r="C780" s="6"/>
+      <c r="D780" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B59 B38 B22 B14" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B59 B38 B22 B14 B75 B94 B115 B146 B182 B225 B278 B297 B318 B349 B385 B428" xr:uid="{BD1BD003-9C46-4FBD-99EA-FC0DAEFD6ABE}">
       <formula1>$J$2:$J$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D59 D38 D22 D14" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D59 D38 D22 D14 D75 D94 D115 D146 D182 D225 D278 D297 D318 D349 D385 D428" xr:uid="{48BF8691-1E10-4296-BB76-1715A86B19C5}">
       <formula1>$J$7:$J$9</formula1>
     </dataValidation>
   </dataValidations>
